--- a/Lab2/dotNotationDADDAtree.xlsx
+++ b/Lab2/dotNotationDADDAtree.xlsx
@@ -20,9 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4</t>
+  </si>
   <si>
     <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5</t>
   </si>
 </sst>
 </file>
@@ -38,6 +53,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -58,12 +74,14 @@
       <sz val="24"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -177,10 +195,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -194,6 +208,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -282,10 +300,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BN87"/>
+  <dimension ref="A1:BO87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="28" zoomScaleNormal="28" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BR32" activeCellId="0" sqref="BR32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE49" colorId="64" zoomScale="44" zoomScaleNormal="44" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BP71" activeCellId="0" sqref="BP71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="46.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2476,169 +2494,168 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="V13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W13" s="6" t="n">
+    <row r="13" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="V13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5" t="n">
         <f aca="false">X13+35</f>
         <v>572</v>
       </c>
-      <c r="X13" s="6" t="n">
+      <c r="X13" s="5" t="n">
         <f aca="false">Z13+35</f>
         <v>537</v>
       </c>
-      <c r="Y13" s="6" t="n">
+      <c r="Y13" s="5" t="n">
         <f aca="false">AA13+35</f>
         <v>536</v>
       </c>
-      <c r="Z13" s="6" t="n">
+      <c r="Z13" s="5" t="n">
         <f aca="false">AB13+35</f>
         <v>502</v>
       </c>
-      <c r="AA13" s="6" t="n">
+      <c r="AA13" s="5" t="n">
         <f aca="false">AC14+35</f>
         <v>501</v>
       </c>
-      <c r="AB13" s="6" t="n">
+      <c r="AB13" s="5" t="n">
         <f aca="false">AD13+35</f>
         <v>467</v>
       </c>
-      <c r="AC13" s="6" t="n">
+      <c r="AC13" s="5" t="n">
         <f aca="false">AE12+35</f>
         <v>433</v>
       </c>
-      <c r="AD13" s="6" t="n">
+      <c r="AD13" s="5" t="n">
         <f aca="false">AF12+35</f>
         <v>432</v>
       </c>
-      <c r="AE13" s="6" t="n">
+      <c r="AE13" s="5" t="n">
         <f aca="false">AG12+35</f>
         <v>431</v>
       </c>
-      <c r="AF13" s="6" t="n">
+      <c r="AF13" s="5" t="n">
         <f aca="false">AH12+35</f>
         <v>430</v>
       </c>
-      <c r="AG13" s="6" t="n">
+      <c r="AG13" s="5" t="n">
         <f aca="false">AI12+35</f>
         <v>429</v>
       </c>
-      <c r="AH13" s="6" t="n">
+      <c r="AH13" s="5" t="n">
         <f aca="false">AJ12+35</f>
         <v>428</v>
       </c>
-      <c r="AI13" s="6" t="n">
+      <c r="AI13" s="5" t="n">
         <f aca="false">AK12+35</f>
         <v>427</v>
       </c>
-      <c r="AJ13" s="6" t="n">
+      <c r="AJ13" s="5" t="n">
         <f aca="false">AL12+35</f>
         <v>426</v>
       </c>
-      <c r="AK13" s="6" t="n">
+      <c r="AK13" s="5" t="n">
         <f aca="false">AM12+35</f>
         <v>425</v>
       </c>
-      <c r="AL13" s="6" t="n">
+      <c r="AL13" s="5" t="n">
         <f aca="false">AN12+35</f>
         <v>424</v>
       </c>
-      <c r="AM13" s="6" t="n">
+      <c r="AM13" s="5" t="n">
         <f aca="false">AO12+35</f>
         <v>423</v>
       </c>
-      <c r="AN13" s="6" t="n">
+      <c r="AN13" s="5" t="n">
         <f aca="false">AP12+35</f>
         <v>422</v>
       </c>
-      <c r="AO13" s="6" t="n">
+      <c r="AO13" s="5" t="n">
         <f aca="false">AQ12+35</f>
         <v>421</v>
       </c>
-      <c r="AP13" s="6" t="n">
+      <c r="AP13" s="5" t="n">
         <f aca="false">AR12+35</f>
         <v>421</v>
       </c>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="5" t="n">
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" s="7" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="W14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X14" s="7" t="n">
+    <row r="14" s="6" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="W14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14" s="6" t="n">
         <f aca="false">Y13+35</f>
         <v>571</v>
       </c>
-      <c r="Y14" s="7" t="n">
+      <c r="Y14" s="6" t="n">
         <f aca="false">Z14+35</f>
         <v>570</v>
       </c>
-      <c r="Z14" s="7" t="n">
+      <c r="Z14" s="6" t="n">
         <f aca="false">AB14+35</f>
         <v>535</v>
       </c>
-      <c r="AA14" s="7" t="n">
+      <c r="AA14" s="6" t="n">
         <f aca="false">AC15+35</f>
         <v>534</v>
       </c>
-      <c r="AB14" s="7" t="n">
+      <c r="AB14" s="6" t="n">
         <f aca="false">AD14+35</f>
         <v>500</v>
       </c>
-      <c r="AC14" s="7" t="n">
+      <c r="AC14" s="6" t="n">
         <f aca="false">AE13+35</f>
         <v>466</v>
       </c>
-      <c r="AD14" s="7" t="n">
+      <c r="AD14" s="6" t="n">
         <f aca="false">AF13+35</f>
         <v>465</v>
       </c>
-      <c r="AE14" s="7" t="n">
+      <c r="AE14" s="6" t="n">
         <f aca="false">AG13+35</f>
         <v>464</v>
       </c>
-      <c r="AF14" s="7" t="n">
+      <c r="AF14" s="6" t="n">
         <f aca="false">AH13+35</f>
         <v>463</v>
       </c>
-      <c r="AG14" s="7" t="n">
+      <c r="AG14" s="6" t="n">
         <f aca="false">AI13+35</f>
         <v>462</v>
       </c>
-      <c r="AH14" s="7" t="n">
+      <c r="AH14" s="6" t="n">
         <f aca="false">AJ13+35</f>
         <v>461</v>
       </c>
-      <c r="AI14" s="7" t="n">
+      <c r="AI14" s="6" t="n">
         <f aca="false">AK13+35</f>
         <v>460</v>
       </c>
-      <c r="AJ14" s="7" t="n">
+      <c r="AJ14" s="6" t="n">
         <f aca="false">AL13+35</f>
         <v>459</v>
       </c>
-      <c r="AK14" s="7" t="n">
+      <c r="AK14" s="6" t="n">
         <f aca="false">AM13+35</f>
         <v>458</v>
       </c>
-      <c r="AL14" s="7" t="n">
+      <c r="AL14" s="6" t="n">
         <f aca="false">AN13+35</f>
         <v>457</v>
       </c>
-      <c r="AM14" s="7" t="n">
+      <c r="AM14" s="6" t="n">
         <f aca="false">AO13+35</f>
         <v>456</v>
       </c>
-      <c r="AN14" s="7" t="n">
+      <c r="AN14" s="6" t="n">
         <f aca="false">AP13+35</f>
         <v>456</v>
       </c>
-      <c r="AP14" s="7" t="n">
+      <c r="AP14" s="6" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2946,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="8" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" s="7" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="n">
         <v>-1</v>
@@ -3008,62 +3025,62 @@
       <c r="U23" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="V23" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W23" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD23" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE23" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF23" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG23" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="AH23" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI23" s="4" t="n">
-        <v>31</v>
-      </c>
-      <c r="AJ23" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK23" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL23" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM23" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN23" s="4" t="n">
-        <v>26</v>
+      <c r="V23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="AO23" s="4" t="n">
         <v>25</v>
@@ -3145,156 +3162,141 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2" t="e">
         <f aca="false">C24+35</f>
-        <v>384</v>
-      </c>
-      <c r="C24" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C24" s="2" t="e">
         <f aca="false">E24+35</f>
-        <v>349</v>
-      </c>
-      <c r="D24" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D24" s="2" t="e">
         <f aca="false">F24+35</f>
-        <v>558</v>
-      </c>
-      <c r="E24" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E24" s="2" t="e">
         <f aca="false">G24+35</f>
-        <v>314</v>
-      </c>
-      <c r="F24" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" s="2" t="e">
         <f aca="false">H24+35</f>
-        <v>523</v>
-      </c>
-      <c r="G24" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G24" s="2" t="e">
         <f aca="false">I24+35</f>
-        <v>279</v>
-      </c>
-      <c r="H24" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H24" s="2" t="e">
         <f aca="false">J24+35</f>
-        <v>488</v>
-      </c>
-      <c r="I24" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I24" s="2" t="e">
         <f aca="false">K24+35</f>
-        <v>244</v>
-      </c>
-      <c r="J24" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J24" s="2" t="e">
         <f aca="false">L24+35</f>
-        <v>453</v>
-      </c>
-      <c r="K24" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K24" s="2" t="e">
         <f aca="false">M24+35</f>
-        <v>209</v>
-      </c>
-      <c r="L24" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L24" s="2" t="e">
         <f aca="false">N24+35</f>
-        <v>418</v>
-      </c>
-      <c r="M24" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M24" s="2" t="e">
         <f aca="false">O24+35</f>
-        <v>174</v>
-      </c>
-      <c r="N24" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N24" s="2" t="e">
         <f aca="false">P24+35</f>
-        <v>383</v>
-      </c>
-      <c r="O24" s="3" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O24" s="3" t="e">
         <f aca="false">Q24+35</f>
-        <v>139</v>
-      </c>
-      <c r="P24" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P24" s="4" t="e">
         <f aca="false">R24+35</f>
-        <v>348</v>
-      </c>
-      <c r="Q24" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q24" s="4" t="e">
         <f aca="false">S24+35</f>
-        <v>104</v>
-      </c>
-      <c r="R24" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R24" s="4" t="e">
         <f aca="false">T24+35</f>
-        <v>313</v>
-      </c>
-      <c r="S24" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S24" s="4" t="e">
         <f aca="false">U24+35</f>
-        <v>69</v>
-      </c>
-      <c r="T24" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T24" s="4" t="e">
         <f aca="false">V24+35</f>
-        <v>278</v>
-      </c>
-      <c r="U24" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U24" s="4" t="e">
         <f aca="false">V23+35</f>
-        <v>34</v>
-      </c>
-      <c r="V24" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V24" s="4" t="e">
         <f aca="false">W24+35</f>
-        <v>243</v>
-      </c>
-      <c r="W24" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W24" s="4" t="e">
         <f aca="false">Y24+35</f>
-        <v>208</v>
-      </c>
-      <c r="X24" s="4" t="n">
-        <f aca="false">Z24+35</f>
-        <v>174</v>
-      </c>
-      <c r="Y24" s="4" t="n">
-        <f aca="false">AA24+35</f>
-        <v>173</v>
-      </c>
-      <c r="Z24" s="4" t="n">
-        <f aca="false">AB24+35</f>
-        <v>139</v>
-      </c>
-      <c r="AA24" s="4" t="n">
-        <f aca="false">AC25+35</f>
-        <v>138</v>
-      </c>
-      <c r="AB24" s="4" t="n">
-        <f aca="false">AD24+35</f>
-        <v>104</v>
-      </c>
-      <c r="AC24" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD24" s="4" t="n">
-        <f aca="false">AF23+35</f>
-        <v>69</v>
-      </c>
-      <c r="AE24" s="4" t="n">
-        <f aca="false">AG23+35</f>
-        <v>68</v>
-      </c>
-      <c r="AF24" s="4" t="n">
-        <f aca="false">AH23+35</f>
-        <v>67</v>
-      </c>
-      <c r="AG24" s="4" t="n">
-        <f aca="false">AI23+35</f>
-        <v>66</v>
-      </c>
-      <c r="AH24" s="4" t="n">
-        <f aca="false">AJ23+35</f>
-        <v>65</v>
-      </c>
-      <c r="AI24" s="4" t="n">
-        <f aca="false">AK23+35</f>
-        <v>64</v>
-      </c>
-      <c r="AJ24" s="4" t="n">
-        <f aca="false">AL23+35</f>
-        <v>63</v>
-      </c>
-      <c r="AK24" s="4" t="n">
-        <f aca="false">AM23+35</f>
-        <v>62</v>
-      </c>
-      <c r="AL24" s="4" t="n">
-        <f aca="false">AN23+35</f>
-        <v>61</v>
-      </c>
-      <c r="AM24" s="4" t="n">
-        <f aca="false">AO23+35</f>
-        <v>60</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="AN24" s="4" t="n">
         <f aca="false">AP23+35</f>
@@ -3401,145 +3403,132 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2" t="e">
         <f aca="false">D24+35</f>
-        <v>593</v>
-      </c>
-      <c r="D25" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D25" s="2" t="e">
         <f aca="false">E25+35</f>
-        <v>593</v>
-      </c>
-      <c r="E25" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E25" s="2" t="e">
         <f aca="false">G25+35</f>
-        <v>558</v>
-      </c>
-      <c r="F25" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F25" s="2" t="e">
         <f aca="false">H25+35</f>
-        <v>556</v>
-      </c>
-      <c r="G25" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G25" s="2" t="e">
         <f aca="false">I25+35</f>
-        <v>523</v>
-      </c>
-      <c r="H25" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H25" s="2" t="e">
         <f aca="false">J25+35</f>
-        <v>521</v>
-      </c>
-      <c r="I25" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I25" s="2" t="e">
         <f aca="false">K25+35</f>
-        <v>488</v>
-      </c>
-      <c r="J25" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J25" s="2" t="e">
         <f aca="false">L25+35</f>
-        <v>486</v>
-      </c>
-      <c r="K25" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K25" s="2" t="e">
         <f aca="false">M25+35</f>
-        <v>453</v>
-      </c>
-      <c r="L25" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L25" s="2" t="e">
         <f aca="false">N25+35</f>
-        <v>451</v>
-      </c>
-      <c r="M25" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M25" s="2" t="e">
         <f aca="false">O25+35</f>
-        <v>418</v>
-      </c>
-      <c r="N25" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N25" s="2" t="e">
         <f aca="false">P25+35</f>
-        <v>416</v>
-      </c>
-      <c r="O25" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O25" s="2" t="e">
         <f aca="false">Q25+35</f>
-        <v>383</v>
-      </c>
-      <c r="P25" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P25" s="4" t="e">
         <f aca="false">R25+35</f>
-        <v>381</v>
-      </c>
-      <c r="Q25" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q25" s="4" t="e">
         <f aca="false">S25+35</f>
-        <v>348</v>
-      </c>
-      <c r="R25" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R25" s="4" t="e">
         <f aca="false">T25+35</f>
-        <v>346</v>
-      </c>
-      <c r="S25" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S25" s="4" t="e">
         <f aca="false">U25+35</f>
-        <v>313</v>
-      </c>
-      <c r="T25" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T25" s="4" t="e">
         <f aca="false">V25+35</f>
-        <v>311</v>
-      </c>
-      <c r="U25" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U25" s="4" t="e">
         <f aca="false">V24+35</f>
-        <v>278</v>
-      </c>
-      <c r="V25" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V25" s="4" t="e">
         <f aca="false">W25+35</f>
-        <v>276</v>
-      </c>
-      <c r="W25" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W25" s="4" t="e">
         <f aca="false">Y25+35</f>
-        <v>241</v>
-      </c>
-      <c r="X25" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X25" s="4" t="e">
         <f aca="false">Z25+35</f>
-        <v>207</v>
-      </c>
-      <c r="Y25" s="4" t="n">
-        <f aca="false">AA25+35</f>
-        <v>206</v>
-      </c>
-      <c r="Z25" s="4" t="n">
-        <f aca="false">AB25+35</f>
-        <v>172</v>
-      </c>
-      <c r="AA25" s="4" t="n">
-        <f aca="false">AC26+35</f>
-        <v>171</v>
-      </c>
-      <c r="AB25" s="4" t="n">
-        <f aca="false">AD25+35</f>
-        <v>137</v>
-      </c>
-      <c r="AC25" s="4" t="n">
-        <f aca="false">AE24+35</f>
-        <v>103</v>
-      </c>
-      <c r="AD25" s="4" t="n">
-        <f aca="false">AF24+35</f>
-        <v>102</v>
-      </c>
-      <c r="AE25" s="4" t="n">
-        <f aca="false">AG24+35</f>
-        <v>101</v>
-      </c>
-      <c r="AF25" s="4" t="n">
-        <f aca="false">AH24+35</f>
-        <v>100</v>
-      </c>
-      <c r="AG25" s="4" t="n">
-        <f aca="false">AI24+35</f>
-        <v>99</v>
-      </c>
-      <c r="AH25" s="4" t="n">
-        <f aca="false">AJ24+35</f>
-        <v>98</v>
-      </c>
-      <c r="AI25" s="4" t="n">
-        <f aca="false">AK24+35</f>
-        <v>97</v>
-      </c>
-      <c r="AJ25" s="4" t="n">
-        <f aca="false">AL24+35</f>
-        <v>96</v>
-      </c>
-      <c r="AK25" s="4" t="n">
-        <f aca="false">AM24+35</f>
-        <v>95</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="AL25" s="4" t="n">
         <f aca="false">AN24+35</f>
@@ -3646,129 +3635,120 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="2" t="e">
         <f aca="false">F25+35</f>
-        <v>591</v>
-      </c>
-      <c r="F26" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F26" s="2" t="e">
         <f aca="false">G26+35</f>
-        <v>591</v>
-      </c>
-      <c r="G26" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G26" s="2" t="e">
         <f aca="false">I26+35</f>
-        <v>556</v>
-      </c>
-      <c r="H26" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H26" s="2" t="e">
         <f aca="false">J26+35</f>
-        <v>554</v>
-      </c>
-      <c r="I26" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I26" s="2" t="e">
         <f aca="false">K26+35</f>
-        <v>521</v>
-      </c>
-      <c r="J26" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J26" s="2" t="e">
         <f aca="false">L26+35</f>
-        <v>519</v>
-      </c>
-      <c r="K26" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K26" s="2" t="e">
         <f aca="false">M26+35</f>
-        <v>486</v>
-      </c>
-      <c r="L26" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L26" s="2" t="e">
         <f aca="false">N26+35</f>
-        <v>484</v>
-      </c>
-      <c r="M26" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M26" s="2" t="e">
         <f aca="false">O26+35</f>
-        <v>451</v>
-      </c>
-      <c r="N26" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N26" s="2" t="e">
         <f aca="false">P26+35</f>
-        <v>449</v>
-      </c>
-      <c r="O26" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O26" s="2" t="e">
         <f aca="false">Q26+35</f>
-        <v>416</v>
-      </c>
-      <c r="P26" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P26" s="2" t="e">
         <f aca="false">R26+35</f>
-        <v>414</v>
-      </c>
-      <c r="Q26" s="3" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q26" s="3" t="e">
         <f aca="false">S26+35</f>
-        <v>381</v>
-      </c>
-      <c r="R26" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R26" s="4" t="e">
         <f aca="false">T26+35</f>
-        <v>379</v>
-      </c>
-      <c r="S26" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S26" s="4" t="e">
         <f aca="false">U26+35</f>
-        <v>346</v>
-      </c>
-      <c r="T26" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T26" s="4" t="e">
         <f aca="false">V26+35</f>
-        <v>344</v>
-      </c>
-      <c r="U26" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U26" s="4" t="e">
         <f aca="false">V25+35</f>
-        <v>311</v>
-      </c>
-      <c r="V26" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V26" s="4" t="e">
         <f aca="false">W26+35</f>
-        <v>309</v>
-      </c>
-      <c r="W26" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W26" s="4" t="e">
         <f aca="false">Y26+35</f>
-        <v>274</v>
-      </c>
-      <c r="X26" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X26" s="4" t="e">
         <f aca="false">Z26+35</f>
-        <v>240</v>
-      </c>
-      <c r="Y26" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y26" s="4" t="e">
         <f aca="false">AA26+35</f>
-        <v>239</v>
-      </c>
-      <c r="Z26" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z26" s="4" t="e">
         <f aca="false">AB26+35</f>
-        <v>205</v>
-      </c>
-      <c r="AA26" s="4" t="n">
-        <f aca="false">AC27+35</f>
-        <v>204</v>
-      </c>
-      <c r="AB26" s="4" t="n">
-        <f aca="false">AD26+35</f>
-        <v>170</v>
-      </c>
-      <c r="AC26" s="4" t="n">
-        <f aca="false">AE25+35</f>
-        <v>136</v>
-      </c>
-      <c r="AD26" s="4" t="n">
-        <f aca="false">AF25+35</f>
-        <v>135</v>
-      </c>
-      <c r="AE26" s="4" t="n">
-        <f aca="false">AG25+35</f>
-        <v>134</v>
-      </c>
-      <c r="AF26" s="4" t="n">
-        <f aca="false">AH25+35</f>
-        <v>133</v>
-      </c>
-      <c r="AG26" s="4" t="n">
-        <f aca="false">AI25+35</f>
-        <v>132</v>
-      </c>
-      <c r="AH26" s="4" t="n">
-        <f aca="false">AJ25+35</f>
-        <v>131</v>
-      </c>
-      <c r="AI26" s="4" t="n">
-        <f aca="false">AK25+35</f>
-        <v>130</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="AJ26" s="4" t="n">
         <f aca="false">AL25+35</f>
@@ -3875,113 +3855,113 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="2" t="e">
         <f aca="false">H26+35</f>
-        <v>589</v>
-      </c>
-      <c r="H27" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H27" s="2" t="e">
         <f aca="false">I27+35</f>
-        <v>589</v>
-      </c>
-      <c r="I27" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I27" s="2" t="e">
         <f aca="false">K27+35</f>
-        <v>554</v>
-      </c>
-      <c r="J27" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J27" s="2" t="e">
         <f aca="false">L27+35</f>
-        <v>552</v>
-      </c>
-      <c r="K27" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K27" s="2" t="e">
         <f aca="false">M27+35</f>
-        <v>519</v>
-      </c>
-      <c r="L27" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L27" s="2" t="e">
         <f aca="false">N27+35</f>
-        <v>517</v>
-      </c>
-      <c r="M27" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M27" s="2" t="e">
         <f aca="false">O27+35</f>
-        <v>484</v>
-      </c>
-      <c r="N27" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N27" s="2" t="e">
         <f aca="false">P27+35</f>
-        <v>482</v>
-      </c>
-      <c r="O27" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O27" s="2" t="e">
         <f aca="false">Q27+35</f>
-        <v>449</v>
-      </c>
-      <c r="P27" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P27" s="2" t="e">
         <f aca="false">R27+35</f>
-        <v>447</v>
-      </c>
-      <c r="Q27" s="3" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q27" s="3" t="e">
         <f aca="false">S27+35</f>
-        <v>414</v>
-      </c>
-      <c r="R27" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R27" s="4" t="e">
         <f aca="false">T27+35</f>
-        <v>412</v>
-      </c>
-      <c r="S27" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S27" s="4" t="e">
         <f aca="false">U27+35</f>
-        <v>379</v>
-      </c>
-      <c r="T27" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T27" s="4" t="e">
         <f aca="false">V27+35</f>
-        <v>377</v>
-      </c>
-      <c r="U27" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U27" s="4" t="e">
         <f aca="false">V26+35</f>
-        <v>344</v>
-      </c>
-      <c r="V27" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V27" s="4" t="e">
         <f aca="false">W27+35</f>
-        <v>342</v>
-      </c>
-      <c r="W27" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W27" s="4" t="e">
         <f aca="false">Y27+35</f>
-        <v>307</v>
-      </c>
-      <c r="X27" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X27" s="4" t="e">
         <f aca="false">Z27+35</f>
-        <v>273</v>
-      </c>
-      <c r="Y27" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y27" s="4" t="e">
         <f aca="false">AA27+35</f>
-        <v>272</v>
-      </c>
-      <c r="Z27" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z27" s="4" t="e">
         <f aca="false">AB27+35</f>
-        <v>238</v>
-      </c>
-      <c r="AA27" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA27" s="4" t="e">
         <f aca="false">AC28+35</f>
-        <v>237</v>
-      </c>
-      <c r="AB27" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB27" s="4" t="e">
         <f aca="false">AD27+35</f>
-        <v>203</v>
-      </c>
-      <c r="AC27" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC27" s="4" t="e">
         <f aca="false">AE26+35</f>
-        <v>169</v>
-      </c>
-      <c r="AD27" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD27" s="4" t="e">
         <f aca="false">AF26+35</f>
-        <v>168</v>
-      </c>
-      <c r="AE27" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE27" s="4" t="e">
         <f aca="false">AG26+35</f>
-        <v>167</v>
-      </c>
-      <c r="AF27" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF27" s="4" t="e">
         <f aca="false">AH26+35</f>
-        <v>166</v>
-      </c>
-      <c r="AG27" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG27" s="4" t="e">
         <f aca="false">AI26+35</f>
-        <v>165</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH27" s="4" t="n">
         <f aca="false">AJ26+35</f>
@@ -4088,97 +4068,97 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="2" t="e">
         <f aca="false">J27+35</f>
-        <v>587</v>
-      </c>
-      <c r="J28" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J28" s="2" t="e">
         <f aca="false">K28+35</f>
-        <v>587</v>
-      </c>
-      <c r="K28" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K28" s="2" t="e">
         <f aca="false">M28+35</f>
-        <v>552</v>
-      </c>
-      <c r="L28" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L28" s="2" t="e">
         <f aca="false">N28+35</f>
-        <v>550</v>
-      </c>
-      <c r="M28" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M28" s="2" t="e">
         <f aca="false">O28+35</f>
-        <v>517</v>
-      </c>
-      <c r="N28" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N28" s="2" t="e">
         <f aca="false">P28+35</f>
-        <v>515</v>
-      </c>
-      <c r="O28" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O28" s="2" t="e">
         <f aca="false">Q28+35</f>
-        <v>482</v>
-      </c>
-      <c r="P28" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P28" s="2" t="e">
         <f aca="false">R28+35</f>
-        <v>480</v>
-      </c>
-      <c r="Q28" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q28" s="2" t="e">
         <f aca="false">S28+35</f>
-        <v>447</v>
-      </c>
-      <c r="R28" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R28" s="4" t="e">
         <f aca="false">T28+35</f>
-        <v>445</v>
-      </c>
-      <c r="S28" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S28" s="4" t="e">
         <f aca="false">U28+35</f>
-        <v>412</v>
-      </c>
-      <c r="T28" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T28" s="4" t="e">
         <f aca="false">V28+35</f>
-        <v>410</v>
-      </c>
-      <c r="U28" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U28" s="4" t="e">
         <f aca="false">V27+35</f>
-        <v>377</v>
-      </c>
-      <c r="V28" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V28" s="4" t="e">
         <f aca="false">W28+35</f>
-        <v>375</v>
-      </c>
-      <c r="W28" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W28" s="4" t="e">
         <f aca="false">Y28+35</f>
-        <v>340</v>
-      </c>
-      <c r="X28" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X28" s="4" t="e">
         <f aca="false">Z28+35</f>
-        <v>306</v>
-      </c>
-      <c r="Y28" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y28" s="4" t="e">
         <f aca="false">AA28+35</f>
-        <v>305</v>
-      </c>
-      <c r="Z28" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z28" s="4" t="e">
         <f aca="false">AB28+35</f>
-        <v>271</v>
-      </c>
-      <c r="AA28" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA28" s="4" t="e">
         <f aca="false">AC29+35</f>
-        <v>270</v>
-      </c>
-      <c r="AB28" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB28" s="4" t="e">
         <f aca="false">AD28+35</f>
-        <v>236</v>
-      </c>
-      <c r="AC28" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC28" s="4" t="e">
         <f aca="false">AE27+35</f>
-        <v>202</v>
-      </c>
-      <c r="AD28" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD28" s="4" t="e">
         <f aca="false">AF27+35</f>
-        <v>201</v>
-      </c>
-      <c r="AE28" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE28" s="4" t="e">
         <f aca="false">AG27+35</f>
-        <v>200</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AF28" s="4" t="n">
         <f aca="false">AH27+35</f>
@@ -4285,49 +4265,49 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K29" s="2" t="n">
+      <c r="K29" s="2" t="e">
         <f aca="false">L28+35</f>
-        <v>585</v>
-      </c>
-      <c r="L29" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L29" s="2" t="e">
         <f aca="false">M29+35</f>
-        <v>585</v>
-      </c>
-      <c r="M29" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M29" s="2" t="e">
         <f aca="false">O29+35</f>
-        <v>550</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N29" s="2" t="n">
         <f aca="false">P29+35</f>
         <v>548</v>
       </c>
-      <c r="O29" s="2" t="n">
+      <c r="O29" s="2" t="e">
         <f aca="false">Q29+35</f>
-        <v>515</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P29" s="2" t="n">
         <f aca="false">R29+35</f>
         <v>513</v>
       </c>
-      <c r="Q29" s="2" t="n">
+      <c r="Q29" s="2" t="e">
         <f aca="false">S29+35</f>
-        <v>480</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R29" s="2" t="n">
         <f aca="false">T29+35</f>
         <v>478</v>
       </c>
-      <c r="S29" s="3" t="n">
+      <c r="S29" s="3" t="e">
         <f aca="false">U29+35</f>
-        <v>445</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T29" s="4" t="n">
         <f aca="false">V29+35</f>
         <v>443</v>
       </c>
-      <c r="U29" s="4" t="n">
+      <c r="U29" s="4" t="e">
         <f aca="false">V28+35</f>
-        <v>410</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V29" s="4" t="n">
         <f aca="false">W29+35</f>
@@ -4357,9 +4337,9 @@
         <f aca="false">AD29+35</f>
         <v>269</v>
       </c>
-      <c r="AC29" s="4" t="n">
+      <c r="AC29" s="4" t="e">
         <f aca="false">AE28+35</f>
-        <v>235</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AD29" s="4" t="n">
         <f aca="false">AF28+35</f>
@@ -4632,7 +4612,7 @@
     </row>
     <row r="31" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N31" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="2" t="n">
         <f aca="false">P30+35</f>
@@ -4782,26 +4762,26 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" s="7" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="O32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="7" t="n">
+    <row r="32" s="6" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="O32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="6" t="n">
         <f aca="false">R31+35</f>
         <v>579</v>
       </c>
-      <c r="R32" s="7" t="n">
+      <c r="R32" s="6" t="n">
         <f aca="false">S32+35</f>
         <v>579</v>
       </c>
-      <c r="S32" s="7" t="n">
+      <c r="S32" s="6" t="n">
         <f aca="false">U32+35</f>
         <v>544</v>
       </c>
-      <c r="T32" s="7" t="n">
+      <c r="T32" s="6" t="n">
         <f aca="false">V32+35</f>
         <v>542</v>
       </c>
@@ -4809,7 +4789,7 @@
         <f aca="false">V31+35</f>
         <v>509</v>
       </c>
-      <c r="V32" s="4" t="n">
+      <c r="V32" s="3" t="n">
         <f aca="false">W32+35</f>
         <v>507</v>
       </c>
@@ -4901,39 +4881,38 @@
         <f aca="false">AT31+35</f>
         <v>319</v>
       </c>
-      <c r="AS32" s="7" t="n">
+      <c r="AS32" s="6" t="n">
         <f aca="false">AU31+35</f>
         <v>318</v>
       </c>
-      <c r="AT32" s="7" t="n">
+      <c r="AT32" s="6" t="n">
         <f aca="false">AV31+35</f>
         <v>317</v>
       </c>
-      <c r="AU32" s="7" t="n">
+      <c r="AU32" s="6" t="n">
         <f aca="false">AW31+35</f>
         <v>316</v>
       </c>
-      <c r="AV32" s="7" t="n">
+      <c r="AV32" s="6" t="n">
         <f aca="false">AX31+35</f>
         <v>316</v>
       </c>
-      <c r="AW32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX32" s="7" t="n">
+      <c r="AW32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX32" s="6" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5"/>
       <c r="P33" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" s="2" t="n">
         <f aca="false">T32+35</f>
@@ -4947,7 +4926,7 @@
         <f aca="false">V32+35</f>
         <v>542</v>
       </c>
-      <c r="V33" s="4" t="n">
+      <c r="V33" s="3" t="n">
         <f aca="false">W33+35</f>
         <v>540</v>
       </c>
@@ -5048,7 +5027,7 @@
         <v>351</v>
       </c>
       <c r="AU33" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV33" s="2" t="n">
         <v>-1</v>
@@ -5056,22 +5035,22 @@
     </row>
     <row r="34" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="Q34" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="2" t="n">
         <f aca="false">V33+35</f>
         <v>575</v>
       </c>
-      <c r="V34" s="4" t="n">
+      <c r="V34" s="5" t="n">
         <f aca="false">V33+35</f>
         <v>575</v>
       </c>
@@ -5164,466 +5143,428 @@
         <v>386</v>
       </c>
       <c r="AS34" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" s="2" t="n">
         <v>-1</v>
       </c>
       <c r="AU34" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV34" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S35" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T35" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U35" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="V35" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W35" s="6" t="n">
+      <c r="R35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W35" s="5" t="n">
         <f aca="false">X35+35</f>
         <v>572</v>
       </c>
-      <c r="X35" s="6" t="n">
+      <c r="X35" s="5" t="n">
         <f aca="false">Z35+35</f>
         <v>537</v>
       </c>
-      <c r="Y35" s="6" t="n">
+      <c r="Y35" s="5" t="n">
         <f aca="false">AA35+35</f>
         <v>70</v>
       </c>
-      <c r="Z35" s="6" t="n">
+      <c r="Z35" s="5" t="n">
         <f aca="false">AB35+35</f>
         <v>502</v>
       </c>
-      <c r="AA35" s="6" t="n">
+      <c r="AA35" s="5" t="n">
         <f aca="false">AC40+35</f>
         <v>35</v>
       </c>
-      <c r="AB35" s="6" t="n">
+      <c r="AB35" s="5" t="n">
         <f aca="false">AD35+35</f>
         <v>467</v>
       </c>
-      <c r="AC35" s="6" t="n">
+      <c r="AC35" s="5" t="n">
         <f aca="false">AE34+35</f>
         <v>433</v>
       </c>
-      <c r="AD35" s="6" t="n">
+      <c r="AD35" s="5" t="n">
         <f aca="false">AF34+35</f>
         <v>432</v>
       </c>
-      <c r="AE35" s="6" t="n">
+      <c r="AE35" s="5" t="n">
         <f aca="false">AG34+35</f>
         <v>431</v>
       </c>
-      <c r="AF35" s="6" t="n">
+      <c r="AF35" s="5" t="n">
         <f aca="false">AH34+35</f>
         <v>430</v>
       </c>
-      <c r="AG35" s="6" t="n">
+      <c r="AG35" s="5" t="n">
         <f aca="false">AI34+35</f>
         <v>429</v>
       </c>
-      <c r="AH35" s="6" t="n">
+      <c r="AH35" s="5" t="n">
         <f aca="false">AJ34+35</f>
         <v>428</v>
       </c>
-      <c r="AI35" s="6" t="n">
+      <c r="AI35" s="5" t="n">
         <f aca="false">AK34+35</f>
         <v>427</v>
       </c>
-      <c r="AJ35" s="6" t="n">
+      <c r="AJ35" s="5" t="n">
         <f aca="false">AL34+35</f>
         <v>426</v>
       </c>
-      <c r="AK35" s="6" t="n">
+      <c r="AK35" s="5" t="n">
         <f aca="false">AM34+35</f>
         <v>425</v>
       </c>
-      <c r="AL35" s="6" t="n">
+      <c r="AL35" s="5" t="n">
         <f aca="false">AN34+35</f>
         <v>424</v>
       </c>
-      <c r="AM35" s="6" t="n">
+      <c r="AM35" s="5" t="n">
         <f aca="false">AO34+35</f>
         <v>423</v>
       </c>
-      <c r="AN35" s="6" t="n">
+      <c r="AN35" s="5" t="n">
         <f aca="false">AP34+35</f>
         <v>422</v>
       </c>
-      <c r="AO35" s="6" t="n">
+      <c r="AO35" s="5" t="n">
         <f aca="false">AQ34+35</f>
         <v>421</v>
       </c>
-      <c r="AP35" s="6" t="n">
+      <c r="AP35" s="5" t="n">
         <f aca="false">AR34+35</f>
         <v>421</v>
       </c>
-      <c r="AQ35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR35" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS35" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT35" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU35" s="5"/>
-      <c r="AV35" s="5"/>
-      <c r="AW35" s="5"/>
-      <c r="AX35" s="5"/>
-      <c r="AY35" s="5"/>
-      <c r="AZ35" s="5"/>
-      <c r="BA35" s="5"/>
-      <c r="BB35" s="5"/>
-      <c r="BC35" s="5"/>
-      <c r="BD35" s="5"/>
-      <c r="BE35" s="5"/>
-      <c r="BF35" s="5"/>
-      <c r="BG35" s="5"/>
-      <c r="BH35" s="5"/>
-      <c r="BI35" s="5"/>
-      <c r="BJ35" s="5"/>
-      <c r="BK35" s="5"/>
-      <c r="BL35" s="5"/>
-      <c r="BM35" s="5"/>
-      <c r="BN35" s="5"/>
+      <c r="AQ35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT35" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="S36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="U38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="V39" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="V39" s="0"/>
       <c r="W39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="40" s="8" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" s="7" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="2" t="n">
         <v>-1</v>
@@ -5661,113 +5602,113 @@
       <c r="M41" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N41" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T41" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V41" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W41" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD41" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE41" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF41" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG41" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="AH41" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI41" s="4" t="n">
-        <v>31</v>
-      </c>
-      <c r="AJ41" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK41" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL41" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM41" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN41" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO41" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP41" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ41" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR41" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AS41" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AT41" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU41" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AV41" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AW41" s="4" t="n">
-        <v>17</v>
+      <c r="N41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW41" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="AX41" s="4" t="n">
         <v>16</v>
@@ -5822,188 +5763,157 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="2" t="e">
         <f aca="false">C42+35</f>
-        <v>384</v>
-      </c>
-      <c r="C42" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C42" s="2" t="e">
         <f aca="false">E42+35</f>
-        <v>349</v>
-      </c>
-      <c r="D42" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D42" s="2" t="e">
         <f aca="false">F42+35</f>
-        <v>558</v>
-      </c>
-      <c r="E42" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E42" s="2" t="e">
         <f aca="false">G42+35</f>
-        <v>314</v>
-      </c>
-      <c r="F42" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F42" s="2" t="e">
         <f aca="false">H42+35</f>
-        <v>523</v>
-      </c>
-      <c r="G42" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G42" s="2" t="e">
         <f aca="false">I42+35</f>
-        <v>279</v>
-      </c>
-      <c r="H42" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H42" s="2" t="e">
         <f aca="false">J42+35</f>
-        <v>488</v>
-      </c>
-      <c r="I42" s="3" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I42" s="3" t="e">
         <f aca="false">K42+35</f>
-        <v>244</v>
-      </c>
-      <c r="J42" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J42" s="4" t="e">
         <f aca="false">L42+35</f>
-        <v>453</v>
-      </c>
-      <c r="K42" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K42" s="4" t="e">
         <f aca="false">M42+35</f>
-        <v>209</v>
-      </c>
-      <c r="L42" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L42" s="4" t="e">
         <f aca="false">N42+35</f>
-        <v>418</v>
-      </c>
-      <c r="M42" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M42" s="4" t="e">
         <f aca="false">O42+35</f>
-        <v>174</v>
-      </c>
-      <c r="N42" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N42" s="4" t="e">
         <f aca="false">P42+35</f>
-        <v>383</v>
-      </c>
-      <c r="O42" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O42" s="4" t="e">
         <f aca="false">Q42+35</f>
-        <v>139</v>
-      </c>
-      <c r="P42" s="4" t="n">
-        <f aca="false">R42+35</f>
-        <v>348</v>
-      </c>
-      <c r="Q42" s="4" t="n">
-        <f aca="false">S42+35</f>
-        <v>104</v>
-      </c>
-      <c r="R42" s="4" t="n">
-        <f aca="false">T42+35</f>
-        <v>313</v>
-      </c>
-      <c r="S42" s="4" t="n">
-        <f aca="false">U42+35</f>
-        <v>69</v>
-      </c>
-      <c r="T42" s="4" t="n">
-        <f aca="false">V42+35</f>
-        <v>278</v>
-      </c>
-      <c r="U42" s="4" t="n">
-        <f aca="false">V41+35</f>
-        <v>34</v>
-      </c>
-      <c r="V42" s="4" t="n">
-        <f aca="false">W42+35</f>
-        <v>243</v>
-      </c>
-      <c r="W42" s="4" t="n">
-        <f aca="false">Y42+35</f>
-        <v>208</v>
-      </c>
-      <c r="X42" s="4" t="n">
-        <f aca="false">Z42+35</f>
-        <v>174</v>
-      </c>
-      <c r="Y42" s="4" t="n">
-        <f aca="false">AA42+35</f>
-        <v>173</v>
-      </c>
-      <c r="Z42" s="4" t="n">
-        <f aca="false">AB42+35</f>
-        <v>139</v>
-      </c>
-      <c r="AA42" s="4" t="n">
-        <f aca="false">AC43+35</f>
-        <v>138</v>
-      </c>
-      <c r="AB42" s="4" t="n">
-        <f aca="false">AD42+35</f>
-        <v>104</v>
-      </c>
-      <c r="AC42" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD42" s="4" t="n">
-        <f aca="false">AF41+35</f>
-        <v>69</v>
-      </c>
-      <c r="AE42" s="4" t="n">
-        <f aca="false">AG41+35</f>
-        <v>68</v>
-      </c>
-      <c r="AF42" s="4" t="n">
-        <f aca="false">AH41+35</f>
-        <v>67</v>
-      </c>
-      <c r="AG42" s="4" t="n">
-        <f aca="false">AI41+35</f>
-        <v>66</v>
-      </c>
-      <c r="AH42" s="4" t="n">
-        <f aca="false">AJ41+35</f>
-        <v>65</v>
-      </c>
-      <c r="AI42" s="4" t="n">
-        <f aca="false">AK41+35</f>
-        <v>64</v>
-      </c>
-      <c r="AJ42" s="4" t="n">
-        <f aca="false">AL41+35</f>
-        <v>63</v>
-      </c>
-      <c r="AK42" s="4" t="n">
-        <f aca="false">AM41+35</f>
-        <v>62</v>
-      </c>
-      <c r="AL42" s="4" t="n">
-        <f aca="false">AN41+35</f>
-        <v>61</v>
-      </c>
-      <c r="AM42" s="4" t="n">
-        <f aca="false">AO41+35</f>
-        <v>60</v>
-      </c>
-      <c r="AN42" s="4" t="n">
-        <f aca="false">AP41+35</f>
-        <v>59</v>
-      </c>
-      <c r="AO42" s="4" t="n">
-        <f aca="false">AQ41+35</f>
-        <v>58</v>
-      </c>
-      <c r="AP42" s="4" t="n">
-        <f aca="false">AR41+35</f>
-        <v>57</v>
-      </c>
-      <c r="AQ42" s="4" t="n">
-        <f aca="false">AS41+35</f>
-        <v>56</v>
-      </c>
-      <c r="AR42" s="4" t="n">
-        <f aca="false">AT41+35</f>
-        <v>55</v>
-      </c>
-      <c r="AS42" s="4" t="n">
-        <f aca="false">AU41+35</f>
-        <v>54</v>
-      </c>
-      <c r="AT42" s="4" t="n">
-        <f aca="false">AV41+35</f>
-        <v>53</v>
-      </c>
-      <c r="AU42" s="4" t="n">
-        <f aca="false">AW41+35</f>
-        <v>52</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU42" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="AV42" s="4" t="n">
         <f aca="false">AX41+35</f>
@@ -6078,177 +5988,149 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="2" t="e">
         <f aca="false">D42+35</f>
-        <v>593</v>
-      </c>
-      <c r="D43" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D43" s="2" t="e">
         <f aca="false">E43+35</f>
-        <v>593</v>
-      </c>
-      <c r="E43" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E43" s="2" t="e">
         <f aca="false">G43+35</f>
-        <v>558</v>
-      </c>
-      <c r="F43" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F43" s="2" t="e">
         <f aca="false">H43+35</f>
-        <v>556</v>
-      </c>
-      <c r="G43" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G43" s="2" t="e">
         <f aca="false">I43+35</f>
-        <v>523</v>
-      </c>
-      <c r="H43" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H43" s="2" t="e">
         <f aca="false">J43+35</f>
-        <v>521</v>
-      </c>
-      <c r="I43" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I43" s="2" t="e">
         <f aca="false">K43+35</f>
-        <v>488</v>
-      </c>
-      <c r="J43" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J43" s="4" t="e">
         <f aca="false">L43+35</f>
-        <v>486</v>
-      </c>
-      <c r="K43" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K43" s="4" t="e">
         <f aca="false">M43+35</f>
-        <v>453</v>
-      </c>
-      <c r="L43" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L43" s="4" t="e">
         <f aca="false">N43+35</f>
-        <v>451</v>
-      </c>
-      <c r="M43" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M43" s="4" t="e">
         <f aca="false">O43+35</f>
-        <v>418</v>
-      </c>
-      <c r="N43" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N43" s="4" t="e">
         <f aca="false">P43+35</f>
-        <v>416</v>
-      </c>
-      <c r="O43" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O43" s="4" t="e">
         <f aca="false">Q43+35</f>
-        <v>383</v>
-      </c>
-      <c r="P43" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P43" s="4" t="e">
         <f aca="false">R43+35</f>
-        <v>381</v>
-      </c>
-      <c r="Q43" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q43" s="4" t="e">
         <f aca="false">S43+35</f>
-        <v>348</v>
-      </c>
-      <c r="R43" s="4" t="n">
-        <f aca="false">T43+35</f>
-        <v>346</v>
-      </c>
-      <c r="S43" s="4" t="n">
-        <f aca="false">U43+35</f>
-        <v>313</v>
-      </c>
-      <c r="T43" s="4" t="n">
-        <f aca="false">V43+35</f>
-        <v>311</v>
-      </c>
-      <c r="U43" s="4" t="n">
-        <f aca="false">V42+35</f>
-        <v>278</v>
-      </c>
-      <c r="V43" s="4" t="n">
-        <f aca="false">W43+35</f>
-        <v>276</v>
-      </c>
-      <c r="W43" s="4" t="n">
-        <f aca="false">Y43+35</f>
-        <v>241</v>
-      </c>
-      <c r="X43" s="4" t="n">
-        <f aca="false">Z43+35</f>
-        <v>207</v>
-      </c>
-      <c r="Y43" s="4" t="n">
-        <f aca="false">AA43+35</f>
-        <v>206</v>
-      </c>
-      <c r="Z43" s="4" t="n">
-        <f aca="false">AB43+35</f>
-        <v>172</v>
-      </c>
-      <c r="AA43" s="4" t="n">
-        <f aca="false">AC44+35</f>
-        <v>171</v>
-      </c>
-      <c r="AB43" s="4" t="n">
-        <f aca="false">AD43+35</f>
-        <v>137</v>
-      </c>
-      <c r="AC43" s="4" t="n">
-        <f aca="false">AE42+35</f>
-        <v>103</v>
-      </c>
-      <c r="AD43" s="4" t="n">
-        <f aca="false">AF42+35</f>
-        <v>102</v>
-      </c>
-      <c r="AE43" s="4" t="n">
-        <f aca="false">AG42+35</f>
-        <v>101</v>
-      </c>
-      <c r="AF43" s="4" t="n">
-        <f aca="false">AH42+35</f>
-        <v>100</v>
-      </c>
-      <c r="AG43" s="4" t="n">
-        <f aca="false">AI42+35</f>
-        <v>99</v>
-      </c>
-      <c r="AH43" s="4" t="n">
-        <f aca="false">AJ42+35</f>
-        <v>98</v>
-      </c>
-      <c r="AI43" s="4" t="n">
-        <f aca="false">AK42+35</f>
-        <v>97</v>
-      </c>
-      <c r="AJ43" s="4" t="n">
-        <f aca="false">AL42+35</f>
-        <v>96</v>
-      </c>
-      <c r="AK43" s="4" t="n">
-        <f aca="false">AM42+35</f>
-        <v>95</v>
-      </c>
-      <c r="AL43" s="4" t="n">
-        <f aca="false">AN42+35</f>
-        <v>94</v>
-      </c>
-      <c r="AM43" s="4" t="n">
-        <f aca="false">AO42+35</f>
-        <v>93</v>
-      </c>
-      <c r="AN43" s="4" t="n">
-        <f aca="false">AP42+35</f>
-        <v>92</v>
-      </c>
-      <c r="AO43" s="4" t="n">
-        <f aca="false">AQ42+35</f>
-        <v>91</v>
-      </c>
-      <c r="AP43" s="4" t="n">
-        <f aca="false">AR42+35</f>
-        <v>90</v>
-      </c>
-      <c r="AQ43" s="4" t="n">
-        <f aca="false">AS42+35</f>
-        <v>89</v>
-      </c>
-      <c r="AR43" s="4" t="n">
-        <f aca="false">AT42+35</f>
-        <v>88</v>
-      </c>
-      <c r="AS43" s="4" t="n">
-        <f aca="false">AU42+35</f>
-        <v>87</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS43" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="AT43" s="4" t="n">
         <f aca="false">AV42+35</f>
@@ -6323,161 +6205,137 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="2" t="e">
         <f aca="false">F43+35</f>
-        <v>591</v>
-      </c>
-      <c r="F44" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F44" s="2" t="e">
         <f aca="false">G44+35</f>
-        <v>591</v>
-      </c>
-      <c r="G44" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G44" s="2" t="e">
         <f aca="false">I44+35</f>
-        <v>556</v>
-      </c>
-      <c r="H44" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H44" s="2" t="e">
         <f aca="false">J44+35</f>
-        <v>554</v>
-      </c>
-      <c r="I44" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I44" s="2" t="e">
         <f aca="false">K44+35</f>
-        <v>521</v>
-      </c>
-      <c r="J44" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J44" s="2" t="e">
         <f aca="false">L44+35</f>
-        <v>519</v>
-      </c>
-      <c r="K44" s="3" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K44" s="3" t="e">
         <f aca="false">M44+35</f>
-        <v>486</v>
-      </c>
-      <c r="L44" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L44" s="4" t="e">
         <f aca="false">N44+35</f>
-        <v>484</v>
-      </c>
-      <c r="M44" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M44" s="4" t="e">
         <f aca="false">O44+35</f>
-        <v>451</v>
-      </c>
-      <c r="N44" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N44" s="4" t="e">
         <f aca="false">P44+35</f>
-        <v>449</v>
-      </c>
-      <c r="O44" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O44" s="4" t="e">
         <f aca="false">Q44+35</f>
-        <v>416</v>
-      </c>
-      <c r="P44" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P44" s="4" t="e">
         <f aca="false">R44+35</f>
-        <v>414</v>
-      </c>
-      <c r="Q44" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q44" s="4" t="e">
         <f aca="false">S44+35</f>
-        <v>381</v>
-      </c>
-      <c r="R44" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R44" s="4" t="e">
         <f aca="false">T44+35</f>
-        <v>379</v>
-      </c>
-      <c r="S44" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S44" s="4" t="e">
         <f aca="false">U44+35</f>
-        <v>346</v>
-      </c>
-      <c r="T44" s="4" t="n">
-        <f aca="false">V44+35</f>
-        <v>344</v>
-      </c>
-      <c r="U44" s="4" t="n">
-        <f aca="false">V43+35</f>
-        <v>311</v>
-      </c>
-      <c r="V44" s="4" t="n">
-        <f aca="false">W44+35</f>
-        <v>309</v>
-      </c>
-      <c r="W44" s="4" t="n">
-        <f aca="false">Y44+35</f>
-        <v>274</v>
-      </c>
-      <c r="X44" s="4" t="n">
-        <f aca="false">Z44+35</f>
-        <v>240</v>
-      </c>
-      <c r="Y44" s="4" t="n">
-        <f aca="false">AA44+35</f>
-        <v>239</v>
-      </c>
-      <c r="Z44" s="4" t="n">
-        <f aca="false">AB44+35</f>
-        <v>205</v>
-      </c>
-      <c r="AA44" s="4" t="n">
-        <f aca="false">AC45+35</f>
-        <v>204</v>
-      </c>
-      <c r="AB44" s="4" t="n">
-        <f aca="false">AD44+35</f>
-        <v>170</v>
-      </c>
-      <c r="AC44" s="4" t="n">
-        <f aca="false">AE43+35</f>
-        <v>136</v>
-      </c>
-      <c r="AD44" s="4" t="n">
-        <f aca="false">AF43+35</f>
-        <v>135</v>
-      </c>
-      <c r="AE44" s="4" t="n">
-        <f aca="false">AG43+35</f>
-        <v>134</v>
-      </c>
-      <c r="AF44" s="4" t="n">
-        <f aca="false">AH43+35</f>
-        <v>133</v>
-      </c>
-      <c r="AG44" s="4" t="n">
-        <f aca="false">AI43+35</f>
-        <v>132</v>
-      </c>
-      <c r="AH44" s="4" t="n">
-        <f aca="false">AJ43+35</f>
-        <v>131</v>
-      </c>
-      <c r="AI44" s="4" t="n">
-        <f aca="false">AK43+35</f>
-        <v>130</v>
-      </c>
-      <c r="AJ44" s="4" t="n">
-        <f aca="false">AL43+35</f>
-        <v>129</v>
-      </c>
-      <c r="AK44" s="4" t="n">
-        <f aca="false">AM43+35</f>
-        <v>128</v>
-      </c>
-      <c r="AL44" s="4" t="n">
-        <f aca="false">AN43+35</f>
-        <v>127</v>
-      </c>
-      <c r="AM44" s="4" t="n">
-        <f aca="false">AO43+35</f>
-        <v>126</v>
-      </c>
-      <c r="AN44" s="4" t="n">
-        <f aca="false">AP43+35</f>
-        <v>125</v>
-      </c>
-      <c r="AO44" s="4" t="n">
-        <f aca="false">AQ43+35</f>
-        <v>124</v>
-      </c>
-      <c r="AP44" s="4" t="n">
-        <f aca="false">AR43+35</f>
-        <v>123</v>
-      </c>
-      <c r="AQ44" s="4" t="n">
-        <f aca="false">AS43+35</f>
-        <v>122</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="AR44" s="4" t="n">
         <f aca="false">AT43+35</f>
@@ -6552,145 +6410,145 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G45" s="2" t="n">
+      <c r="G45" s="2" t="e">
         <f aca="false">H44+35</f>
-        <v>589</v>
-      </c>
-      <c r="H45" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H45" s="2" t="e">
         <f aca="false">I45+35</f>
-        <v>589</v>
-      </c>
-      <c r="I45" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I45" s="2" t="e">
         <f aca="false">K45+35</f>
-        <v>554</v>
-      </c>
-      <c r="J45" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J45" s="2" t="e">
         <f aca="false">L45+35</f>
-        <v>552</v>
-      </c>
-      <c r="K45" s="3" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K45" s="3" t="e">
         <f aca="false">M45+35</f>
-        <v>519</v>
-      </c>
-      <c r="L45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L45" s="4" t="e">
         <f aca="false">N45+35</f>
-        <v>517</v>
-      </c>
-      <c r="M45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M45" s="4" t="e">
         <f aca="false">O45+35</f>
-        <v>484</v>
-      </c>
-      <c r="N45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N45" s="4" t="e">
         <f aca="false">P45+35</f>
-        <v>482</v>
-      </c>
-      <c r="O45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O45" s="4" t="e">
         <f aca="false">Q45+35</f>
-        <v>449</v>
-      </c>
-      <c r="P45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P45" s="4" t="e">
         <f aca="false">R45+35</f>
-        <v>447</v>
-      </c>
-      <c r="Q45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q45" s="4" t="e">
         <f aca="false">S45+35</f>
-        <v>414</v>
-      </c>
-      <c r="R45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R45" s="4" t="e">
         <f aca="false">T45+35</f>
-        <v>412</v>
-      </c>
-      <c r="S45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S45" s="4" t="e">
         <f aca="false">U45+35</f>
-        <v>379</v>
-      </c>
-      <c r="T45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T45" s="4" t="e">
         <f aca="false">V45+35</f>
-        <v>377</v>
-      </c>
-      <c r="U45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U45" s="4" t="e">
         <f aca="false">V44+35</f>
-        <v>344</v>
-      </c>
-      <c r="V45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V45" s="4" t="e">
         <f aca="false">W45+35</f>
-        <v>342</v>
-      </c>
-      <c r="W45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W45" s="4" t="e">
         <f aca="false">Y45+35</f>
-        <v>307</v>
-      </c>
-      <c r="X45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X45" s="4" t="e">
         <f aca="false">Z45+35</f>
-        <v>273</v>
-      </c>
-      <c r="Y45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y45" s="4" t="e">
         <f aca="false">AA45+35</f>
-        <v>272</v>
-      </c>
-      <c r="Z45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z45" s="4" t="e">
         <f aca="false">AB45+35</f>
-        <v>238</v>
-      </c>
-      <c r="AA45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA45" s="4" t="e">
         <f aca="false">AC46+35</f>
-        <v>237</v>
-      </c>
-      <c r="AB45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB45" s="4" t="e">
         <f aca="false">AD45+35</f>
-        <v>203</v>
-      </c>
-      <c r="AC45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC45" s="4" t="e">
         <f aca="false">AE44+35</f>
-        <v>169</v>
-      </c>
-      <c r="AD45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD45" s="4" t="e">
         <f aca="false">AF44+35</f>
-        <v>168</v>
-      </c>
-      <c r="AE45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE45" s="4" t="e">
         <f aca="false">AG44+35</f>
-        <v>167</v>
-      </c>
-      <c r="AF45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF45" s="4" t="e">
         <f aca="false">AH44+35</f>
-        <v>166</v>
-      </c>
-      <c r="AG45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG45" s="4" t="e">
         <f aca="false">AI44+35</f>
-        <v>165</v>
-      </c>
-      <c r="AH45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH45" s="4" t="e">
         <f aca="false">AJ44+35</f>
-        <v>164</v>
-      </c>
-      <c r="AI45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI45" s="4" t="e">
         <f aca="false">AK44+35</f>
-        <v>163</v>
-      </c>
-      <c r="AJ45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ45" s="4" t="e">
         <f aca="false">AL44+35</f>
-        <v>162</v>
-      </c>
-      <c r="AK45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK45" s="4" t="e">
         <f aca="false">AM44+35</f>
-        <v>161</v>
-      </c>
-      <c r="AL45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL45" s="4" t="e">
         <f aca="false">AN44+35</f>
-        <v>160</v>
-      </c>
-      <c r="AM45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM45" s="4" t="e">
         <f aca="false">AO44+35</f>
-        <v>159</v>
-      </c>
-      <c r="AN45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN45" s="4" t="e">
         <f aca="false">AP44+35</f>
-        <v>158</v>
-      </c>
-      <c r="AO45" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO45" s="4" t="e">
         <f aca="false">AQ44+35</f>
-        <v>157</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AP45" s="4" t="n">
         <f aca="false">AR44+35</f>
@@ -6766,131 +6624,131 @@
     </row>
     <row r="46" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" s="2" t="e">
         <f aca="false">J45+35</f>
-        <v>587</v>
-      </c>
-      <c r="J46" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J46" s="2" t="e">
         <f aca="false">K46+35</f>
-        <v>587</v>
-      </c>
-      <c r="K46" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K46" s="2" t="e">
         <f aca="false">M46+35</f>
-        <v>552</v>
-      </c>
-      <c r="L46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L46" s="4" t="e">
         <f aca="false">N46+35</f>
-        <v>550</v>
-      </c>
-      <c r="M46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M46" s="4" t="e">
         <f aca="false">O46+35</f>
-        <v>517</v>
-      </c>
-      <c r="N46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N46" s="4" t="e">
         <f aca="false">P46+35</f>
-        <v>515</v>
-      </c>
-      <c r="O46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O46" s="4" t="e">
         <f aca="false">Q46+35</f>
-        <v>482</v>
-      </c>
-      <c r="P46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P46" s="4" t="e">
         <f aca="false">R46+35</f>
-        <v>480</v>
-      </c>
-      <c r="Q46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q46" s="4" t="e">
         <f aca="false">S46+35</f>
-        <v>447</v>
-      </c>
-      <c r="R46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R46" s="4" t="e">
         <f aca="false">T46+35</f>
-        <v>445</v>
-      </c>
-      <c r="S46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S46" s="4" t="e">
         <f aca="false">U46+35</f>
-        <v>412</v>
-      </c>
-      <c r="T46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T46" s="4" t="e">
         <f aca="false">V46+35</f>
-        <v>410</v>
-      </c>
-      <c r="U46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U46" s="4" t="e">
         <f aca="false">V45+35</f>
-        <v>377</v>
-      </c>
-      <c r="V46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V46" s="4" t="e">
         <f aca="false">W46+35</f>
-        <v>375</v>
-      </c>
-      <c r="W46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W46" s="4" t="e">
         <f aca="false">Y46+35</f>
-        <v>340</v>
-      </c>
-      <c r="X46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X46" s="4" t="e">
         <f aca="false">Z46+35</f>
-        <v>306</v>
-      </c>
-      <c r="Y46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y46" s="4" t="e">
         <f aca="false">AA46+35</f>
-        <v>305</v>
-      </c>
-      <c r="Z46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z46" s="4" t="e">
         <f aca="false">AB46+35</f>
-        <v>271</v>
-      </c>
-      <c r="AA46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA46" s="4" t="e">
         <f aca="false">AC47+35</f>
-        <v>270</v>
-      </c>
-      <c r="AB46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB46" s="4" t="e">
         <f aca="false">AD46+35</f>
-        <v>236</v>
-      </c>
-      <c r="AC46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC46" s="4" t="e">
         <f aca="false">AE45+35</f>
-        <v>202</v>
-      </c>
-      <c r="AD46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD46" s="4" t="e">
         <f aca="false">AF45+35</f>
-        <v>201</v>
-      </c>
-      <c r="AE46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE46" s="4" t="e">
         <f aca="false">AG45+35</f>
-        <v>200</v>
-      </c>
-      <c r="AF46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF46" s="4" t="e">
         <f aca="false">AH45+35</f>
-        <v>199</v>
-      </c>
-      <c r="AG46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG46" s="4" t="e">
         <f aca="false">AI45+35</f>
-        <v>198</v>
-      </c>
-      <c r="AH46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH46" s="4" t="e">
         <f aca="false">AJ45+35</f>
-        <v>197</v>
-      </c>
-      <c r="AI46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI46" s="4" t="e">
         <f aca="false">AK45+35</f>
-        <v>196</v>
-      </c>
-      <c r="AJ46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ46" s="4" t="e">
         <f aca="false">AL45+35</f>
-        <v>195</v>
-      </c>
-      <c r="AK46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK46" s="4" t="e">
         <f aca="false">AM45+35</f>
-        <v>194</v>
-      </c>
-      <c r="AL46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL46" s="4" t="e">
         <f aca="false">AN45+35</f>
-        <v>193</v>
-      </c>
-      <c r="AM46" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM46" s="4" t="e">
         <f aca="false">AO45+35</f>
-        <v>192</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AN46" s="4" t="n">
         <f aca="false">AP45+35</f>
@@ -6964,121 +6822,121 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" s="9" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7"/>
-      <c r="I47" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K47" s="9" t="n">
+    <row r="47" s="8" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6"/>
+      <c r="I47" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K47" s="8" t="e">
         <f aca="false">L46+35</f>
-        <v>585</v>
-      </c>
-      <c r="L47" s="9" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L47" s="8" t="e">
         <f aca="false">M47+35</f>
-        <v>585</v>
-      </c>
-      <c r="M47" s="3" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M47" s="3" t="e">
         <f aca="false">O47+35</f>
-        <v>550</v>
-      </c>
-      <c r="N47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N47" s="3" t="e">
         <f aca="false">P47+35</f>
-        <v>548</v>
-      </c>
-      <c r="O47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O47" s="4" t="e">
         <f aca="false">Q47+35</f>
-        <v>515</v>
-      </c>
-      <c r="P47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P47" s="4" t="e">
         <f aca="false">R47+35</f>
-        <v>513</v>
-      </c>
-      <c r="Q47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q47" s="4" t="e">
         <f aca="false">S47+35</f>
-        <v>480</v>
-      </c>
-      <c r="R47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R47" s="4" t="e">
         <f aca="false">T47+35</f>
-        <v>478</v>
-      </c>
-      <c r="S47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S47" s="4" t="e">
         <f aca="false">U47+35</f>
-        <v>445</v>
-      </c>
-      <c r="T47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T47" s="4" t="e">
         <f aca="false">V47+35</f>
-        <v>443</v>
-      </c>
-      <c r="U47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U47" s="4" t="e">
         <f aca="false">V46+35</f>
-        <v>410</v>
-      </c>
-      <c r="V47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V47" s="4" t="e">
         <f aca="false">W47+35</f>
-        <v>408</v>
-      </c>
-      <c r="W47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W47" s="4" t="e">
         <f aca="false">Y47+35</f>
-        <v>373</v>
-      </c>
-      <c r="X47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X47" s="4" t="e">
         <f aca="false">Z47+35</f>
-        <v>339</v>
-      </c>
-      <c r="Y47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y47" s="4" t="e">
         <f aca="false">AA47+35</f>
-        <v>338</v>
-      </c>
-      <c r="Z47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z47" s="4" t="e">
         <f aca="false">AB47+35</f>
-        <v>304</v>
-      </c>
-      <c r="AA47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA47" s="4" t="e">
         <f aca="false">AC48+35</f>
-        <v>303</v>
-      </c>
-      <c r="AB47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB47" s="4" t="e">
         <f aca="false">AD47+35</f>
-        <v>269</v>
-      </c>
-      <c r="AC47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC47" s="4" t="e">
         <f aca="false">AE46+35</f>
-        <v>235</v>
-      </c>
-      <c r="AD47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD47" s="4" t="e">
         <f aca="false">AF46+35</f>
-        <v>234</v>
-      </c>
-      <c r="AE47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE47" s="4" t="e">
         <f aca="false">AG46+35</f>
-        <v>233</v>
-      </c>
-      <c r="AF47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF47" s="4" t="e">
         <f aca="false">AH46+35</f>
-        <v>232</v>
-      </c>
-      <c r="AG47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG47" s="4" t="e">
         <f aca="false">AI46+35</f>
-        <v>231</v>
-      </c>
-      <c r="AH47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH47" s="4" t="e">
         <f aca="false">AJ46+35</f>
-        <v>230</v>
-      </c>
-      <c r="AI47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI47" s="4" t="e">
         <f aca="false">AK46+35</f>
-        <v>229</v>
-      </c>
-      <c r="AJ47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ47" s="4" t="e">
         <f aca="false">AL46+35</f>
-        <v>228</v>
-      </c>
-      <c r="AK47" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK47" s="4" t="e">
         <f aca="false">AM46+35</f>
-        <v>227</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AL47" s="4" t="n">
         <f aca="false">AN46+35</f>
@@ -7140,123 +6998,122 @@
         <f aca="false">BB46+35</f>
         <v>212</v>
       </c>
-      <c r="BA47" s="9" t="n">
+      <c r="BA47" s="8" t="n">
         <f aca="false">BC46+35</f>
         <v>211</v>
       </c>
-      <c r="BB47" s="9" t="n">
+      <c r="BB47" s="8" t="n">
         <f aca="false">BD46+35</f>
         <v>211</v>
       </c>
-      <c r="BC47" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD47" s="9" t="n">
+      <c r="BC47" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD47" s="8" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5"/>
       <c r="J48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="3" t="e">
         <f aca="false">N47+35</f>
-        <v>583</v>
-      </c>
-      <c r="N48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N48" s="3" t="e">
         <f aca="false">O48+35</f>
-        <v>583</v>
-      </c>
-      <c r="O48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O48" s="4" t="e">
         <f aca="false">Q48+35</f>
-        <v>548</v>
-      </c>
-      <c r="P48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P48" s="4" t="e">
         <f aca="false">R48+35</f>
-        <v>546</v>
-      </c>
-      <c r="Q48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q48" s="4" t="e">
         <f aca="false">S48+35</f>
-        <v>513</v>
-      </c>
-      <c r="R48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R48" s="4" t="e">
         <f aca="false">T48+35</f>
-        <v>511</v>
-      </c>
-      <c r="S48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S48" s="4" t="e">
         <f aca="false">U48+35</f>
-        <v>478</v>
-      </c>
-      <c r="T48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T48" s="4" t="e">
         <f aca="false">V48+35</f>
-        <v>476</v>
-      </c>
-      <c r="U48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U48" s="4" t="e">
         <f aca="false">V47+35</f>
-        <v>443</v>
-      </c>
-      <c r="V48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V48" s="4" t="e">
         <f aca="false">W48+35</f>
-        <v>441</v>
-      </c>
-      <c r="W48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W48" s="4" t="e">
         <f aca="false">Y48+35</f>
-        <v>406</v>
-      </c>
-      <c r="X48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X48" s="4" t="e">
         <f aca="false">Z48+35</f>
-        <v>372</v>
-      </c>
-      <c r="Y48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y48" s="4" t="e">
         <f aca="false">AA48+35</f>
-        <v>371</v>
-      </c>
-      <c r="Z48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z48" s="4" t="e">
         <f aca="false">AB48+35</f>
-        <v>337</v>
-      </c>
-      <c r="AA48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA48" s="4" t="e">
         <f aca="false">AC49+35</f>
-        <v>336</v>
-      </c>
-      <c r="AB48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB48" s="4" t="e">
         <f aca="false">AD48+35</f>
-        <v>302</v>
-      </c>
-      <c r="AC48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC48" s="4" t="e">
         <f aca="false">AE47+35</f>
-        <v>268</v>
-      </c>
-      <c r="AD48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD48" s="4" t="e">
         <f aca="false">AF47+35</f>
-        <v>267</v>
-      </c>
-      <c r="AE48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE48" s="4" t="e">
         <f aca="false">AG47+35</f>
-        <v>266</v>
-      </c>
-      <c r="AF48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF48" s="4" t="e">
         <f aca="false">AH47+35</f>
-        <v>265</v>
-      </c>
-      <c r="AG48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG48" s="4" t="e">
         <f aca="false">AI47+35</f>
-        <v>264</v>
-      </c>
-      <c r="AH48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH48" s="4" t="e">
         <f aca="false">AJ47+35</f>
-        <v>263</v>
-      </c>
-      <c r="AI48" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI48" s="4" t="e">
         <f aca="false">AK47+35</f>
-        <v>262</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AJ48" s="4" t="n">
         <f aca="false">AL47+35</f>
@@ -7326,53 +7183,53 @@
         <f aca="false">BB47+35</f>
         <v>246</v>
       </c>
-      <c r="BA48" s="1" t="s">
-        <v>0</v>
+      <c r="BA48" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="BB48" s="2" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O49" s="4" t="n">
+      <c r="K49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O49" s="4" t="e">
         <f aca="false">P48+35</f>
-        <v>581</v>
-      </c>
-      <c r="P49" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P49" s="4" t="e">
         <f aca="false">Q49+35</f>
-        <v>581</v>
-      </c>
-      <c r="Q49" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q49" s="4" t="e">
         <f aca="false">S49+35</f>
-        <v>546</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R49" s="4" t="n">
         <f aca="false">T49+35</f>
         <v>210</v>
       </c>
-      <c r="S49" s="4" t="n">
+      <c r="S49" s="4" t="e">
         <f aca="false">U49+35</f>
-        <v>511</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T49" s="4" t="n">
         <f aca="false">V49+35</f>
         <v>175</v>
       </c>
-      <c r="U49" s="4" t="n">
+      <c r="U49" s="4" t="e">
         <f aca="false">V48+35</f>
-        <v>476</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V49" s="4" t="n">
         <f aca="false">W49+35</f>
@@ -7382,45 +7239,45 @@
         <f aca="false">Y49+35</f>
         <v>105</v>
       </c>
-      <c r="X49" s="4" t="n">
+      <c r="X49" s="4" t="e">
         <f aca="false">Z49+35</f>
-        <v>405</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Y49" s="4" t="n">
         <f aca="false">AA49+35</f>
         <v>70</v>
       </c>
-      <c r="Z49" s="4" t="n">
+      <c r="Z49" s="4" t="e">
         <f aca="false">AB49+35</f>
-        <v>370</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA49" s="4" t="n">
         <f aca="false">AC53+35</f>
         <v>35</v>
       </c>
-      <c r="AB49" s="4" t="n">
+      <c r="AB49" s="4" t="e">
         <f aca="false">AD49+35</f>
-        <v>335</v>
-      </c>
-      <c r="AC49" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC49" s="4" t="e">
         <f aca="false">AE48+35</f>
-        <v>301</v>
-      </c>
-      <c r="AD49" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD49" s="4" t="e">
         <f aca="false">AF48+35</f>
-        <v>300</v>
-      </c>
-      <c r="AE49" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE49" s="4" t="e">
         <f aca="false">AG48+35</f>
-        <v>299</v>
-      </c>
-      <c r="AF49" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF49" s="4" t="e">
         <f aca="false">AH48+35</f>
-        <v>298</v>
-      </c>
-      <c r="AG49" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG49" s="4" t="e">
         <f aca="false">AI48+35</f>
-        <v>297</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH49" s="4" t="n">
         <f aca="false">AJ48+35</f>
@@ -7490,380 +7347,377 @@
         <f aca="false">AZ48+35</f>
         <v>281</v>
       </c>
-      <c r="AY49" s="1" t="s">
-        <v>0</v>
+      <c r="AY49" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="AZ49" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="BA49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB49" s="1" t="s">
-        <v>0</v>
+      <c r="BA49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB49" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX50" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ50" s="1" t="s">
-        <v>0</v>
+      <c r="L50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="V50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="W50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="X50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ50" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ51" s="1" t="s">
-        <v>0</v>
+      <c r="M51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="V51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="W51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="X51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ51" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX52" s="1" t="s">
-        <v>0</v>
+      <c r="O52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="V52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="W52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="X52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX52" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="53" s="8" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" s="7" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="2" t="n">
         <v>-1</v>
@@ -7883,134 +7737,134 @@
       <c r="G54" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="H54" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P54" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R54" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T54" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V54" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W54" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y54" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA54" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC54" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD54" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE54" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF54" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG54" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="AH54" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI54" s="4" t="n">
-        <v>31</v>
-      </c>
-      <c r="AJ54" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK54" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL54" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM54" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN54" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO54" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP54" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ54" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR54" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AS54" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AT54" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU54" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AV54" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AW54" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX54" s="4" t="n">
-        <v>16</v>
+      <c r="H54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX54" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="AY54" s="4" t="n">
         <v>15</v>
@@ -8062,200 +7916,160 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="2" t="n">
+      <c r="B55" s="2" t="e">
         <f aca="false">C55+35</f>
-        <v>384</v>
-      </c>
-      <c r="C55" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C55" s="2" t="e">
         <f aca="false">E55+35</f>
-        <v>349</v>
-      </c>
-      <c r="D55" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D55" s="2" t="e">
         <f aca="false">F55+35</f>
-        <v>558</v>
-      </c>
-      <c r="E55" s="3" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E55" s="3" t="e">
         <f aca="false">G55+35</f>
-        <v>314</v>
-      </c>
-      <c r="F55" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F55" s="4" t="e">
         <f aca="false">H55+35</f>
-        <v>523</v>
-      </c>
-      <c r="G55" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G55" s="4" t="e">
         <f aca="false">I55+35</f>
-        <v>279</v>
-      </c>
-      <c r="H55" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H55" s="4" t="e">
         <f aca="false">J55+35</f>
-        <v>488</v>
-      </c>
-      <c r="I55" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I55" s="4" t="e">
         <f aca="false">K55+35</f>
-        <v>244</v>
-      </c>
-      <c r="J55" s="4" t="n">
-        <f aca="false">L55+35</f>
-        <v>453</v>
-      </c>
-      <c r="K55" s="4" t="n">
-        <f aca="false">M55+35</f>
-        <v>209</v>
-      </c>
-      <c r="L55" s="4" t="n">
-        <f aca="false">N55+35</f>
-        <v>418</v>
-      </c>
-      <c r="M55" s="4" t="n">
-        <f aca="false">O55+35</f>
-        <v>174</v>
-      </c>
-      <c r="N55" s="4" t="n">
-        <f aca="false">P55+35</f>
-        <v>383</v>
-      </c>
-      <c r="O55" s="4" t="n">
-        <f aca="false">Q55+35</f>
-        <v>139</v>
-      </c>
-      <c r="P55" s="4" t="n">
-        <f aca="false">R55+35</f>
-        <v>348</v>
-      </c>
-      <c r="Q55" s="4" t="n">
-        <f aca="false">S55+35</f>
-        <v>104</v>
-      </c>
-      <c r="R55" s="4" t="n">
-        <f aca="false">T55+35</f>
-        <v>313</v>
-      </c>
-      <c r="S55" s="4" t="n">
-        <f aca="false">U55+35</f>
-        <v>69</v>
-      </c>
-      <c r="T55" s="4" t="n">
-        <f aca="false">V55+35</f>
-        <v>278</v>
-      </c>
-      <c r="U55" s="4" t="n">
-        <f aca="false">V54+35</f>
-        <v>34</v>
-      </c>
-      <c r="V55" s="4" t="n">
-        <f aca="false">W55+35</f>
-        <v>243</v>
-      </c>
-      <c r="W55" s="4" t="n">
-        <f aca="false">Y55+35</f>
-        <v>208</v>
-      </c>
-      <c r="X55" s="4" t="n">
-        <f aca="false">Z55+35</f>
-        <v>174</v>
-      </c>
-      <c r="Y55" s="4" t="n">
-        <f aca="false">AA55+35</f>
-        <v>173</v>
-      </c>
-      <c r="Z55" s="4" t="n">
-        <f aca="false">AB55+35</f>
-        <v>139</v>
-      </c>
-      <c r="AA55" s="4" t="n">
-        <f aca="false">AC56+35</f>
-        <v>138</v>
-      </c>
-      <c r="AB55" s="4" t="n">
-        <f aca="false">AD55+35</f>
-        <v>104</v>
-      </c>
-      <c r="AC55" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD55" s="4" t="n">
-        <f aca="false">AF54+35</f>
-        <v>69</v>
-      </c>
-      <c r="AE55" s="4" t="n">
-        <f aca="false">AG54+35</f>
-        <v>68</v>
-      </c>
-      <c r="AF55" s="4" t="n">
-        <f aca="false">AH54+35</f>
-        <v>67</v>
-      </c>
-      <c r="AG55" s="4" t="n">
-        <f aca="false">AI54+35</f>
-        <v>66</v>
-      </c>
-      <c r="AH55" s="4" t="n">
-        <f aca="false">AJ54+35</f>
-        <v>65</v>
-      </c>
-      <c r="AI55" s="4" t="n">
-        <f aca="false">AK54+35</f>
-        <v>64</v>
-      </c>
-      <c r="AJ55" s="4" t="n">
-        <f aca="false">AL54+35</f>
-        <v>63</v>
-      </c>
-      <c r="AK55" s="4" t="n">
-        <f aca="false">AM54+35</f>
-        <v>62</v>
-      </c>
-      <c r="AL55" s="4" t="n">
-        <f aca="false">AN54+35</f>
-        <v>61</v>
-      </c>
-      <c r="AM55" s="4" t="n">
-        <f aca="false">AO54+35</f>
-        <v>60</v>
-      </c>
-      <c r="AN55" s="4" t="n">
-        <f aca="false">AP54+35</f>
-        <v>59</v>
-      </c>
-      <c r="AO55" s="4" t="n">
-        <f aca="false">AQ54+35</f>
-        <v>58</v>
-      </c>
-      <c r="AP55" s="4" t="n">
-        <f aca="false">AR54+35</f>
-        <v>57</v>
-      </c>
-      <c r="AQ55" s="4" t="n">
-        <f aca="false">AS54+35</f>
-        <v>56</v>
-      </c>
-      <c r="AR55" s="4" t="n">
-        <f aca="false">AT54+35</f>
-        <v>55</v>
-      </c>
-      <c r="AS55" s="4" t="n">
-        <f aca="false">AU54+35</f>
-        <v>54</v>
-      </c>
-      <c r="AT55" s="4" t="n">
-        <f aca="false">AV54+35</f>
-        <v>53</v>
-      </c>
-      <c r="AU55" s="4" t="n">
-        <f aca="false">AW54+35</f>
-        <v>52</v>
-      </c>
-      <c r="AV55" s="4" t="n">
-        <f aca="false">AX54+35</f>
-        <v>51</v>
-      </c>
-      <c r="AW55" s="4" t="n">
-        <f aca="false">AY54+35</f>
-        <v>50</v>
-      </c>
-      <c r="AX55" s="4" t="n">
-        <f aca="false">AZ54+35</f>
-        <v>49</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX55" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="AY55" s="4" t="n">
         <f aca="false">BA54+35</f>
@@ -8318,197 +8132,158 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C56" s="2" t="n">
+      <c r="C56" s="2" t="e">
         <f aca="false">D55+35</f>
-        <v>593</v>
-      </c>
-      <c r="D56" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D56" s="2" t="e">
         <f aca="false">E56+35</f>
-        <v>593</v>
-      </c>
-      <c r="E56" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E56" s="2" t="e">
         <f aca="false">G56+35</f>
-        <v>558</v>
-      </c>
-      <c r="F56" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F56" s="4" t="e">
         <f aca="false">H56+35</f>
-        <v>556</v>
-      </c>
-      <c r="G56" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G56" s="4" t="e">
         <f aca="false">I56+35</f>
-        <v>523</v>
-      </c>
-      <c r="H56" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H56" s="4" t="e">
         <f aca="false">J56+35</f>
-        <v>521</v>
-      </c>
-      <c r="I56" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I56" s="4" t="e">
         <f aca="false">K56+35</f>
-        <v>488</v>
-      </c>
-      <c r="J56" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J56" s="4" t="e">
         <f aca="false">L56+35</f>
-        <v>486</v>
-      </c>
-      <c r="K56" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K56" s="4" t="e">
         <f aca="false">M56+35</f>
-        <v>453</v>
-      </c>
-      <c r="L56" s="4" t="n">
-        <f aca="false">N56+35</f>
-        <v>451</v>
-      </c>
-      <c r="M56" s="4" t="n">
-        <f aca="false">O56+35</f>
-        <v>418</v>
-      </c>
-      <c r="N56" s="4" t="n">
-        <f aca="false">P56+35</f>
-        <v>416</v>
-      </c>
-      <c r="O56" s="4" t="n">
-        <f aca="false">Q56+35</f>
-        <v>383</v>
-      </c>
-      <c r="P56" s="4" t="n">
-        <f aca="false">R56+35</f>
-        <v>381</v>
-      </c>
-      <c r="Q56" s="4" t="n">
-        <f aca="false">S56+35</f>
-        <v>348</v>
-      </c>
-      <c r="R56" s="4" t="n">
-        <f aca="false">T56+35</f>
-        <v>346</v>
-      </c>
-      <c r="S56" s="4" t="n">
-        <f aca="false">U56+35</f>
-        <v>313</v>
-      </c>
-      <c r="T56" s="4" t="n">
-        <f aca="false">V56+35</f>
-        <v>311</v>
-      </c>
-      <c r="U56" s="4" t="n">
-        <f aca="false">V55+35</f>
-        <v>278</v>
-      </c>
-      <c r="V56" s="4" t="n">
-        <f aca="false">W56+35</f>
-        <v>276</v>
-      </c>
-      <c r="W56" s="4" t="n">
-        <f aca="false">Y56+35</f>
-        <v>241</v>
-      </c>
-      <c r="X56" s="4" t="n">
-        <f aca="false">Z56+35</f>
-        <v>207</v>
-      </c>
-      <c r="Y56" s="4" t="n">
-        <f aca="false">AA56+35</f>
-        <v>206</v>
-      </c>
-      <c r="Z56" s="4" t="n">
-        <f aca="false">AB56+35</f>
-        <v>172</v>
-      </c>
-      <c r="AA56" s="4" t="n">
-        <f aca="false">AC57+35</f>
-        <v>171</v>
-      </c>
-      <c r="AB56" s="4" t="n">
-        <f aca="false">AD56+35</f>
-        <v>137</v>
-      </c>
-      <c r="AC56" s="4" t="n">
-        <f aca="false">AE55+35</f>
-        <v>103</v>
-      </c>
-      <c r="AD56" s="4" t="n">
-        <f aca="false">AF55+35</f>
-        <v>102</v>
-      </c>
-      <c r="AE56" s="4" t="n">
-        <f aca="false">AG55+35</f>
-        <v>101</v>
-      </c>
-      <c r="AF56" s="4" t="n">
-        <f aca="false">AH55+35</f>
-        <v>100</v>
-      </c>
-      <c r="AG56" s="4" t="n">
-        <f aca="false">AI55+35</f>
-        <v>99</v>
-      </c>
-      <c r="AH56" s="4" t="n">
-        <f aca="false">AJ55+35</f>
-        <v>98</v>
-      </c>
-      <c r="AI56" s="4" t="n">
-        <f aca="false">AK55+35</f>
-        <v>97</v>
-      </c>
-      <c r="AJ56" s="4" t="n">
-        <f aca="false">AL55+35</f>
-        <v>96</v>
-      </c>
-      <c r="AK56" s="4" t="n">
-        <f aca="false">AM55+35</f>
-        <v>95</v>
-      </c>
-      <c r="AL56" s="4" t="n">
-        <f aca="false">AN55+35</f>
-        <v>94</v>
-      </c>
-      <c r="AM56" s="4" t="n">
-        <f aca="false">AO55+35</f>
-        <v>93</v>
-      </c>
-      <c r="AN56" s="4" t="n">
-        <f aca="false">AP55+35</f>
-        <v>92</v>
-      </c>
-      <c r="AO56" s="4" t="n">
-        <f aca="false">AQ55+35</f>
-        <v>91</v>
-      </c>
-      <c r="AP56" s="4" t="n">
-        <f aca="false">AR55+35</f>
-        <v>90</v>
-      </c>
-      <c r="AQ56" s="4" t="n">
-        <f aca="false">AS55+35</f>
-        <v>89</v>
-      </c>
-      <c r="AR56" s="4" t="n">
-        <f aca="false">AT55+35</f>
-        <v>88</v>
-      </c>
-      <c r="AS56" s="4" t="n">
-        <f aca="false">AU55+35</f>
-        <v>87</v>
-      </c>
-      <c r="AT56" s="4" t="n">
-        <f aca="false">AV55+35</f>
-        <v>86</v>
-      </c>
-      <c r="AU56" s="4" t="n">
-        <f aca="false">AW55+35</f>
-        <v>85</v>
-      </c>
-      <c r="AV56" s="4" t="n">
-        <f aca="false">AX55+35</f>
-        <v>84</v>
-      </c>
-      <c r="AW56" s="4" t="n">
-        <f aca="false">AY55+35</f>
-        <v>83</v>
-      </c>
-      <c r="AX56" s="4" t="n">
-        <f aca="false">AZ55+35</f>
-        <v>82</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX56" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="AY56" s="4" t="n">
         <f aca="false">BA55+35</f>
@@ -8564,183 +8339,183 @@
     </row>
     <row r="57" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2" t="e">
         <f aca="false">F56+35</f>
-        <v>591</v>
-      </c>
-      <c r="F57" s="2" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F57" s="2" t="e">
         <f aca="false">G57+35</f>
-        <v>591</v>
-      </c>
-      <c r="G57" s="3" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G57" s="3" t="e">
         <f aca="false">I57+35</f>
-        <v>556</v>
-      </c>
-      <c r="H57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H57" s="3" t="e">
         <f aca="false">J57+35</f>
-        <v>554</v>
-      </c>
-      <c r="I57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I57" s="4" t="e">
         <f aca="false">K57+35</f>
-        <v>521</v>
-      </c>
-      <c r="J57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J57" s="4" t="e">
         <f aca="false">L57+35</f>
-        <v>519</v>
-      </c>
-      <c r="K57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K57" s="4" t="e">
         <f aca="false">M57+35</f>
-        <v>486</v>
-      </c>
-      <c r="L57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L57" s="4" t="e">
         <f aca="false">N57+35</f>
-        <v>484</v>
-      </c>
-      <c r="M57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M57" s="4" t="e">
         <f aca="false">O57+35</f>
-        <v>451</v>
-      </c>
-      <c r="N57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N57" s="4" t="e">
         <f aca="false">P57+35</f>
-        <v>449</v>
-      </c>
-      <c r="O57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O57" s="4" t="e">
         <f aca="false">Q57+35</f>
-        <v>416</v>
-      </c>
-      <c r="P57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P57" s="4" t="e">
         <f aca="false">R57+35</f>
-        <v>414</v>
-      </c>
-      <c r="Q57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q57" s="4" t="e">
         <f aca="false">S57+35</f>
-        <v>381</v>
-      </c>
-      <c r="R57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R57" s="4" t="e">
         <f aca="false">T57+35</f>
-        <v>379</v>
-      </c>
-      <c r="S57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S57" s="4" t="e">
         <f aca="false">U57+35</f>
-        <v>346</v>
-      </c>
-      <c r="T57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T57" s="4" t="e">
         <f aca="false">V57+35</f>
-        <v>344</v>
-      </c>
-      <c r="U57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U57" s="4" t="e">
         <f aca="false">V56+35</f>
-        <v>311</v>
-      </c>
-      <c r="V57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V57" s="4" t="e">
         <f aca="false">W57+35</f>
-        <v>309</v>
-      </c>
-      <c r="W57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W57" s="4" t="e">
         <f aca="false">Y57+35</f>
-        <v>274</v>
-      </c>
-      <c r="X57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X57" s="4" t="e">
         <f aca="false">Z57+35</f>
-        <v>240</v>
-      </c>
-      <c r="Y57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y57" s="4" t="e">
         <f aca="false">AA57+35</f>
-        <v>239</v>
-      </c>
-      <c r="Z57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z57" s="4" t="e">
         <f aca="false">AB57+35</f>
-        <v>205</v>
-      </c>
-      <c r="AA57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA57" s="4" t="e">
         <f aca="false">AC58+35</f>
-        <v>204</v>
-      </c>
-      <c r="AB57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB57" s="4" t="e">
         <f aca="false">AD57+35</f>
-        <v>170</v>
-      </c>
-      <c r="AC57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC57" s="4" t="e">
         <f aca="false">AE56+35</f>
-        <v>136</v>
-      </c>
-      <c r="AD57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD57" s="4" t="e">
         <f aca="false">AF56+35</f>
-        <v>135</v>
-      </c>
-      <c r="AE57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE57" s="4" t="e">
         <f aca="false">AG56+35</f>
-        <v>134</v>
-      </c>
-      <c r="AF57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF57" s="4" t="e">
         <f aca="false">AH56+35</f>
-        <v>133</v>
-      </c>
-      <c r="AG57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG57" s="4" t="e">
         <f aca="false">AI56+35</f>
-        <v>132</v>
-      </c>
-      <c r="AH57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH57" s="4" t="e">
         <f aca="false">AJ56+35</f>
-        <v>131</v>
-      </c>
-      <c r="AI57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI57" s="4" t="e">
         <f aca="false">AK56+35</f>
-        <v>130</v>
-      </c>
-      <c r="AJ57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ57" s="4" t="e">
         <f aca="false">AL56+35</f>
-        <v>129</v>
-      </c>
-      <c r="AK57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK57" s="4" t="e">
         <f aca="false">AM56+35</f>
-        <v>128</v>
-      </c>
-      <c r="AL57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL57" s="4" t="e">
         <f aca="false">AN56+35</f>
-        <v>127</v>
-      </c>
-      <c r="AM57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM57" s="4" t="e">
         <f aca="false">AO56+35</f>
-        <v>126</v>
-      </c>
-      <c r="AN57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN57" s="4" t="e">
         <f aca="false">AP56+35</f>
-        <v>125</v>
-      </c>
-      <c r="AO57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO57" s="4" t="e">
         <f aca="false">AQ56+35</f>
-        <v>124</v>
-      </c>
-      <c r="AP57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP57" s="4" t="e">
         <f aca="false">AR56+35</f>
-        <v>123</v>
-      </c>
-      <c r="AQ57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ57" s="4" t="e">
         <f aca="false">AS56+35</f>
-        <v>122</v>
-      </c>
-      <c r="AR57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR57" s="4" t="e">
         <f aca="false">AT56+35</f>
-        <v>121</v>
-      </c>
-      <c r="AS57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS57" s="4" t="e">
         <f aca="false">AU56+35</f>
-        <v>120</v>
-      </c>
-      <c r="AT57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT57" s="4" t="e">
         <f aca="false">AV56+35</f>
-        <v>119</v>
-      </c>
-      <c r="AU57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU57" s="4" t="e">
         <f aca="false">AW56+35</f>
-        <v>118</v>
-      </c>
-      <c r="AV57" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV57" s="4" t="e">
         <f aca="false">AX56+35</f>
-        <v>117</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AW57" s="4" t="n">
         <f aca="false">AY56+35</f>
@@ -8794,173 +8569,173 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" s="9" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7"/>
-      <c r="E58" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="n">
+    <row r="58" s="8" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6"/>
+      <c r="E58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="e">
         <f aca="false">H57+35</f>
-        <v>589</v>
-      </c>
-      <c r="H58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H58" s="3" t="e">
         <f aca="false">I58+35</f>
-        <v>589</v>
-      </c>
-      <c r="I58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I58" s="4" t="e">
         <f aca="false">K58+35</f>
-        <v>554</v>
-      </c>
-      <c r="J58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J58" s="4" t="e">
         <f aca="false">L58+35</f>
-        <v>552</v>
-      </c>
-      <c r="K58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K58" s="4" t="e">
         <f aca="false">M58+35</f>
-        <v>519</v>
-      </c>
-      <c r="L58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L58" s="4" t="e">
         <f aca="false">N58+35</f>
-        <v>517</v>
-      </c>
-      <c r="M58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M58" s="4" t="e">
         <f aca="false">O58+35</f>
-        <v>484</v>
-      </c>
-      <c r="N58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N58" s="4" t="e">
         <f aca="false">P58+35</f>
-        <v>482</v>
-      </c>
-      <c r="O58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O58" s="4" t="e">
         <f aca="false">Q58+35</f>
-        <v>449</v>
-      </c>
-      <c r="P58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P58" s="4" t="e">
         <f aca="false">R58+35</f>
-        <v>447</v>
-      </c>
-      <c r="Q58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q58" s="4" t="e">
         <f aca="false">S58+35</f>
-        <v>414</v>
-      </c>
-      <c r="R58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R58" s="4" t="e">
         <f aca="false">T58+35</f>
-        <v>412</v>
-      </c>
-      <c r="S58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S58" s="4" t="e">
         <f aca="false">U58+35</f>
-        <v>379</v>
-      </c>
-      <c r="T58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T58" s="4" t="e">
         <f aca="false">V58+35</f>
-        <v>377</v>
-      </c>
-      <c r="U58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U58" s="4" t="e">
         <f aca="false">V57+35</f>
-        <v>344</v>
-      </c>
-      <c r="V58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V58" s="4" t="e">
         <f aca="false">W58+35</f>
-        <v>342</v>
-      </c>
-      <c r="W58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W58" s="4" t="e">
         <f aca="false">Y58+35</f>
-        <v>307</v>
-      </c>
-      <c r="X58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X58" s="4" t="e">
         <f aca="false">Z58+35</f>
-        <v>273</v>
-      </c>
-      <c r="Y58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y58" s="4" t="e">
         <f aca="false">AA58+35</f>
-        <v>272</v>
-      </c>
-      <c r="Z58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z58" s="4" t="e">
         <f aca="false">AB58+35</f>
-        <v>238</v>
-      </c>
-      <c r="AA58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA58" s="4" t="e">
         <f aca="false">AC59+35</f>
-        <v>237</v>
-      </c>
-      <c r="AB58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB58" s="4" t="e">
         <f aca="false">AD58+35</f>
-        <v>203</v>
-      </c>
-      <c r="AC58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC58" s="4" t="e">
         <f aca="false">AE57+35</f>
-        <v>169</v>
-      </c>
-      <c r="AD58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD58" s="4" t="e">
         <f aca="false">AF57+35</f>
-        <v>168</v>
-      </c>
-      <c r="AE58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE58" s="4" t="e">
         <f aca="false">AG57+35</f>
-        <v>167</v>
-      </c>
-      <c r="AF58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF58" s="4" t="e">
         <f aca="false">AH57+35</f>
-        <v>166</v>
-      </c>
-      <c r="AG58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG58" s="4" t="e">
         <f aca="false">AI57+35</f>
-        <v>165</v>
-      </c>
-      <c r="AH58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH58" s="4" t="e">
         <f aca="false">AJ57+35</f>
-        <v>164</v>
-      </c>
-      <c r="AI58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI58" s="4" t="e">
         <f aca="false">AK57+35</f>
-        <v>163</v>
-      </c>
-      <c r="AJ58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ58" s="4" t="e">
         <f aca="false">AL57+35</f>
-        <v>162</v>
-      </c>
-      <c r="AK58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK58" s="4" t="e">
         <f aca="false">AM57+35</f>
-        <v>161</v>
-      </c>
-      <c r="AL58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL58" s="4" t="e">
         <f aca="false">AN57+35</f>
-        <v>160</v>
-      </c>
-      <c r="AM58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM58" s="4" t="e">
         <f aca="false">AO57+35</f>
-        <v>159</v>
-      </c>
-      <c r="AN58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN58" s="4" t="e">
         <f aca="false">AP57+35</f>
-        <v>158</v>
-      </c>
-      <c r="AO58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO58" s="4" t="e">
         <f aca="false">AQ57+35</f>
-        <v>157</v>
-      </c>
-      <c r="AP58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP58" s="4" t="e">
         <f aca="false">AR57+35</f>
-        <v>156</v>
-      </c>
-      <c r="AQ58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ58" s="4" t="e">
         <f aca="false">AS57+35</f>
-        <v>155</v>
-      </c>
-      <c r="AR58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR58" s="4" t="e">
         <f aca="false">AT57+35</f>
-        <v>154</v>
-      </c>
-      <c r="AS58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS58" s="4" t="e">
         <f aca="false">AU57+35</f>
-        <v>153</v>
-      </c>
-      <c r="AT58" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT58" s="4" t="e">
         <f aca="false">AV57+35</f>
-        <v>152</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU58" s="4" t="n">
         <f aca="false">AW57+35</f>
@@ -9010,74 +8785,74 @@
         <f aca="false">BH57+35</f>
         <v>141</v>
       </c>
-      <c r="BG58" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH58" s="9" t="n">
+      <c r="BG58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH58" s="8" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F59" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I59" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="4" t="e">
         <f aca="false">J58+35</f>
-        <v>587</v>
-      </c>
-      <c r="J59" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J59" s="4" t="e">
         <f aca="false">K59+35</f>
-        <v>587</v>
-      </c>
-      <c r="K59" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K59" s="4" t="e">
         <f aca="false">M59+35</f>
-        <v>552</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L59" s="4" t="n">
         <f aca="false">N59+35</f>
         <v>315</v>
       </c>
-      <c r="M59" s="4" t="n">
+      <c r="M59" s="4" t="e">
         <f aca="false">O59+35</f>
-        <v>517</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N59" s="4" t="n">
         <f aca="false">P59+35</f>
         <v>280</v>
       </c>
-      <c r="O59" s="4" t="n">
+      <c r="O59" s="4" t="e">
         <f aca="false">Q59+35</f>
-        <v>482</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P59" s="4" t="n">
         <f aca="false">R59+35</f>
         <v>245</v>
       </c>
-      <c r="Q59" s="4" t="n">
+      <c r="Q59" s="4" t="e">
         <f aca="false">S59+35</f>
-        <v>447</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R59" s="4" t="n">
         <f aca="false">T59+35</f>
         <v>210</v>
       </c>
-      <c r="S59" s="4" t="n">
+      <c r="S59" s="4" t="e">
         <f aca="false">U59+35</f>
-        <v>412</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T59" s="4" t="n">
         <f aca="false">V59+35</f>
         <v>175</v>
       </c>
-      <c r="U59" s="4" t="n">
+      <c r="U59" s="4" t="e">
         <f aca="false">V58+35</f>
-        <v>377</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V59" s="4" t="n">
         <f aca="false">W59+35</f>
@@ -9087,89 +8862,89 @@
         <f aca="false">Y59+35</f>
         <v>105</v>
       </c>
-      <c r="X59" s="4" t="n">
+      <c r="X59" s="4" t="e">
         <f aca="false">Z59+35</f>
-        <v>306</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Y59" s="4" t="n">
         <f aca="false">AA59+35</f>
         <v>70</v>
       </c>
-      <c r="Z59" s="4" t="n">
+      <c r="Z59" s="4" t="e">
         <f aca="false">AB59+35</f>
-        <v>271</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA59" s="4" t="n">
         <f aca="false">AC63+35</f>
         <v>35</v>
       </c>
-      <c r="AB59" s="4" t="n">
+      <c r="AB59" s="4" t="e">
         <f aca="false">AD59+35</f>
-        <v>236</v>
-      </c>
-      <c r="AC59" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC59" s="4" t="e">
         <f aca="false">AE58+35</f>
-        <v>202</v>
-      </c>
-      <c r="AD59" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD59" s="4" t="e">
         <f aca="false">AF58+35</f>
-        <v>201</v>
-      </c>
-      <c r="AE59" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE59" s="4" t="e">
         <f aca="false">AG58+35</f>
-        <v>200</v>
-      </c>
-      <c r="AF59" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF59" s="4" t="e">
         <f aca="false">AH58+35</f>
-        <v>199</v>
-      </c>
-      <c r="AG59" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG59" s="4" t="e">
         <f aca="false">AI58+35</f>
-        <v>198</v>
-      </c>
-      <c r="AH59" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH59" s="4" t="e">
         <f aca="false">AJ58+35</f>
-        <v>197</v>
-      </c>
-      <c r="AI59" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI59" s="4" t="e">
         <f aca="false">AK58+35</f>
-        <v>196</v>
-      </c>
-      <c r="AJ59" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ59" s="4" t="e">
         <f aca="false">AL58+35</f>
-        <v>195</v>
-      </c>
-      <c r="AK59" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK59" s="4" t="e">
         <f aca="false">AM58+35</f>
-        <v>194</v>
-      </c>
-      <c r="AL59" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL59" s="4" t="e">
         <f aca="false">AN58+35</f>
-        <v>193</v>
-      </c>
-      <c r="AM59" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM59" s="4" t="e">
         <f aca="false">AO58+35</f>
-        <v>192</v>
-      </c>
-      <c r="AN59" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN59" s="4" t="e">
         <f aca="false">AP58+35</f>
-        <v>191</v>
-      </c>
-      <c r="AO59" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO59" s="4" t="e">
         <f aca="false">AQ58+35</f>
-        <v>190</v>
-      </c>
-      <c r="AP59" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP59" s="4" t="e">
         <f aca="false">AR58+35</f>
-        <v>189</v>
-      </c>
-      <c r="AQ59" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ59" s="4" t="e">
         <f aca="false">AS58+35</f>
-        <v>188</v>
-      </c>
-      <c r="AR59" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR59" s="4" t="e">
         <f aca="false">AT58+35</f>
-        <v>187</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AS59" s="4" t="n">
         <f aca="false">AU58+35</f>
@@ -9220,507 +8995,502 @@
         <v>176</v>
       </c>
       <c r="BE59" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF59" s="2" t="n">
         <v>-1</v>
       </c>
     </row>
-    <row r="60" s="5" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1"/>
-      <c r="G60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="V60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="X60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF60" s="5" t="s">
-        <v>0</v>
+    <row r="60" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF60" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="61" s="5" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1"/>
-      <c r="H61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="V61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="X61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD61" s="5" t="s">
-        <v>0</v>
+    <row r="61" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD61" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="63" s="8" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" s="7" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L64" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P64" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R64" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T64" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V64" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W64" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y64" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA64" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC64" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD64" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE64" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF64" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG64" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="AH64" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI64" s="4" t="n">
-        <v>31</v>
-      </c>
-      <c r="AJ64" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK64" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL64" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM64" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN64" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO64" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP64" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ64" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR64" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AS64" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AT64" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU64" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AV64" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AW64" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX64" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY64" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ64" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA64" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="BB64" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="BC64" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD64" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="BE64" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF64" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG64" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH64" s="4" t="n">
+      <c r="A64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH64" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="BI64" s="4" t="n">
+      <c r="BI64" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="BJ64" s="4" t="n">
+      <c r="BJ64" s="9" t="n">
         <v>4</v>
       </c>
       <c r="BK64" s="3" t="n">
@@ -9729,254 +9499,205 @@
       <c r="BL64" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="BM64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN64" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="BM64" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN64" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO64" s="9"/>
     </row>
     <row r="65" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="4" t="n">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9" t="e">
         <f aca="false">C65+35</f>
-        <v>384</v>
-      </c>
-      <c r="C65" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C65" s="9" t="e">
         <f aca="false">E65+35</f>
-        <v>349</v>
-      </c>
-      <c r="D65" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D65" s="9" t="e">
         <f aca="false">F65+35</f>
-        <v>558</v>
-      </c>
-      <c r="E65" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E65" s="9" t="e">
         <f aca="false">G65+35</f>
-        <v>314</v>
-      </c>
-      <c r="F65" s="4" t="n">
-        <f aca="false">H65+35</f>
-        <v>523</v>
-      </c>
-      <c r="G65" s="4" t="n">
-        <f aca="false">I65+35</f>
-        <v>279</v>
-      </c>
-      <c r="H65" s="4" t="n">
-        <f aca="false">J65+35</f>
-        <v>488</v>
-      </c>
-      <c r="I65" s="4" t="n">
-        <f aca="false">K65+35</f>
-        <v>244</v>
-      </c>
-      <c r="J65" s="4" t="n">
-        <f aca="false">L65+35</f>
-        <v>453</v>
-      </c>
-      <c r="K65" s="4" t="n">
-        <f aca="false">M65+35</f>
-        <v>209</v>
-      </c>
-      <c r="L65" s="4" t="n">
-        <f aca="false">N65+35</f>
-        <v>418</v>
-      </c>
-      <c r="M65" s="4" t="n">
-        <f aca="false">O65+35</f>
-        <v>174</v>
-      </c>
-      <c r="N65" s="4" t="n">
-        <f aca="false">P65+35</f>
-        <v>383</v>
-      </c>
-      <c r="O65" s="4" t="n">
-        <f aca="false">Q65+35</f>
-        <v>139</v>
-      </c>
-      <c r="P65" s="4" t="n">
-        <f aca="false">R65+35</f>
-        <v>348</v>
-      </c>
-      <c r="Q65" s="4" t="n">
-        <f aca="false">S65+35</f>
-        <v>104</v>
-      </c>
-      <c r="R65" s="4" t="n">
-        <f aca="false">T65+35</f>
-        <v>313</v>
-      </c>
-      <c r="S65" s="4" t="n">
-        <f aca="false">U65+35</f>
-        <v>69</v>
-      </c>
-      <c r="T65" s="4" t="n">
-        <f aca="false">V65+35</f>
-        <v>278</v>
-      </c>
-      <c r="U65" s="4" t="n">
-        <f aca="false">V64+35</f>
-        <v>34</v>
-      </c>
-      <c r="V65" s="4" t="n">
-        <f aca="false">W65+35</f>
-        <v>243</v>
-      </c>
-      <c r="W65" s="4" t="n">
-        <f aca="false">Y65+35</f>
-        <v>208</v>
-      </c>
-      <c r="X65" s="4" t="n">
-        <f aca="false">Z65+35</f>
-        <v>174</v>
-      </c>
-      <c r="Y65" s="4" t="n">
-        <f aca="false">AA65+35</f>
-        <v>173</v>
-      </c>
-      <c r="Z65" s="4" t="n">
-        <f aca="false">AB65+35</f>
-        <v>139</v>
-      </c>
-      <c r="AA65" s="4" t="n">
-        <f aca="false">AC66+35</f>
-        <v>138</v>
-      </c>
-      <c r="AB65" s="4" t="n">
-        <f aca="false">AD65+35</f>
-        <v>104</v>
-      </c>
-      <c r="AC65" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD65" s="4" t="n">
-        <f aca="false">AF64+35</f>
-        <v>69</v>
-      </c>
-      <c r="AE65" s="4" t="n">
-        <f aca="false">AG64+35</f>
-        <v>68</v>
-      </c>
-      <c r="AF65" s="4" t="n">
-        <f aca="false">AH64+35</f>
-        <v>67</v>
-      </c>
-      <c r="AG65" s="4" t="n">
-        <f aca="false">AI64+35</f>
-        <v>66</v>
-      </c>
-      <c r="AH65" s="4" t="n">
-        <f aca="false">AJ64+35</f>
-        <v>65</v>
-      </c>
-      <c r="AI65" s="4" t="n">
-        <f aca="false">AK64+35</f>
-        <v>64</v>
-      </c>
-      <c r="AJ65" s="4" t="n">
-        <f aca="false">AL64+35</f>
-        <v>63</v>
-      </c>
-      <c r="AK65" s="4" t="n">
-        <f aca="false">AM64+35</f>
-        <v>62</v>
-      </c>
-      <c r="AL65" s="4" t="n">
-        <f aca="false">AN64+35</f>
-        <v>61</v>
-      </c>
-      <c r="AM65" s="4" t="n">
-        <f aca="false">AO64+35</f>
-        <v>60</v>
-      </c>
-      <c r="AN65" s="4" t="n">
-        <f aca="false">AP64+35</f>
-        <v>59</v>
-      </c>
-      <c r="AO65" s="4" t="n">
-        <f aca="false">AQ64+35</f>
-        <v>58</v>
-      </c>
-      <c r="AP65" s="4" t="n">
-        <f aca="false">AR64+35</f>
-        <v>57</v>
-      </c>
-      <c r="AQ65" s="4" t="n">
-        <f aca="false">AS64+35</f>
-        <v>56</v>
-      </c>
-      <c r="AR65" s="4" t="n">
-        <f aca="false">AT64+35</f>
-        <v>55</v>
-      </c>
-      <c r="AS65" s="4" t="n">
-        <f aca="false">AU64+35</f>
-        <v>54</v>
-      </c>
-      <c r="AT65" s="4" t="n">
-        <f aca="false">AV64+35</f>
-        <v>53</v>
-      </c>
-      <c r="AU65" s="4" t="n">
-        <f aca="false">AW64+35</f>
-        <v>52</v>
-      </c>
-      <c r="AV65" s="4" t="n">
-        <f aca="false">AX64+35</f>
-        <v>51</v>
-      </c>
-      <c r="AW65" s="4" t="n">
-        <f aca="false">AY64+35</f>
-        <v>50</v>
-      </c>
-      <c r="AX65" s="4" t="n">
-        <f aca="false">AZ64+35</f>
-        <v>49</v>
-      </c>
-      <c r="AY65" s="4" t="n">
-        <f aca="false">BA64+35</f>
-        <v>48</v>
-      </c>
-      <c r="AZ65" s="4" t="n">
-        <f aca="false">BB64+35</f>
-        <v>47</v>
-      </c>
-      <c r="BA65" s="4" t="n">
-        <f aca="false">BC64+35</f>
-        <v>46</v>
-      </c>
-      <c r="BB65" s="4" t="n">
-        <f aca="false">BD64+35</f>
-        <v>45</v>
-      </c>
-      <c r="BC65" s="4" t="n">
-        <f aca="false">BE64+35</f>
-        <v>44</v>
-      </c>
-      <c r="BD65" s="4" t="n">
-        <f aca="false">BF64+35</f>
-        <v>43</v>
-      </c>
-      <c r="BE65" s="4" t="n">
-        <f aca="false">BG64+35</f>
-        <v>42</v>
-      </c>
-      <c r="BF65" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF65" s="9" t="n">
         <f aca="false">BH64+35</f>
         <v>41</v>
       </c>
-      <c r="BG65" s="4" t="n">
+      <c r="BG65" s="9" t="n">
         <f aca="false">BI64+35</f>
         <v>40</v>
       </c>
-      <c r="BH65" s="4" t="n">
+      <c r="BH65" s="9" t="n">
         <f aca="false">BJ64+35</f>
         <v>39</v>
       </c>
-      <c r="BI65" s="4" t="n">
+      <c r="BI65" s="9" t="n">
         <f aca="false">BK64+35</f>
         <v>38</v>
       </c>
-      <c r="BJ65" s="4" t="n">
+      <c r="BJ65" s="9" t="n">
         <f aca="false">BL64+35</f>
         <v>37</v>
       </c>
@@ -9988,864 +9709,628 @@
         <f aca="false">BM64+35</f>
         <v>36</v>
       </c>
-      <c r="BN65" s="2" t="n">
-        <v>-1</v>
-      </c>
+      <c r="BM65" s="9"/>
+      <c r="BN65" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BO65" s="9"/>
     </row>
-    <row r="66" s="9" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7"/>
-      <c r="B66" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="4" t="n">
+    <row r="66" s="6" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C66" s="6" t="e">
         <f aca="false">D65+35</f>
-        <v>593</v>
-      </c>
-      <c r="D66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D66" s="6" t="e">
         <f aca="false">E66+35</f>
-        <v>593</v>
-      </c>
-      <c r="E66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E66" s="6" t="e">
         <f aca="false">G66+35</f>
-        <v>558</v>
-      </c>
-      <c r="F66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F66" s="6" t="e">
         <f aca="false">H66+35</f>
-        <v>556</v>
-      </c>
-      <c r="G66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G66" s="6" t="e">
         <f aca="false">I66+35</f>
-        <v>523</v>
-      </c>
-      <c r="H66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H66" s="6" t="e">
         <f aca="false">J66+35</f>
-        <v>521</v>
-      </c>
-      <c r="I66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I66" s="6" t="e">
         <f aca="false">K66+35</f>
-        <v>488</v>
-      </c>
-      <c r="J66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J66" s="6" t="e">
         <f aca="false">L66+35</f>
-        <v>486</v>
-      </c>
-      <c r="K66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K66" s="6" t="e">
         <f aca="false">M66+35</f>
-        <v>453</v>
-      </c>
-      <c r="L66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L66" s="6" t="e">
         <f aca="false">N66+35</f>
-        <v>451</v>
-      </c>
-      <c r="M66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M66" s="6" t="e">
         <f aca="false">O66+35</f>
-        <v>418</v>
-      </c>
-      <c r="N66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N66" s="6" t="e">
         <f aca="false">P66+35</f>
-        <v>416</v>
-      </c>
-      <c r="O66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O66" s="6" t="e">
         <f aca="false">Q66+35</f>
-        <v>383</v>
-      </c>
-      <c r="P66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P66" s="6" t="e">
         <f aca="false">R66+35</f>
-        <v>381</v>
-      </c>
-      <c r="Q66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q66" s="6" t="e">
         <f aca="false">S66+35</f>
-        <v>348</v>
-      </c>
-      <c r="R66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R66" s="6" t="e">
         <f aca="false">T66+35</f>
-        <v>346</v>
-      </c>
-      <c r="S66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S66" s="6" t="e">
         <f aca="false">U66+35</f>
-        <v>313</v>
-      </c>
-      <c r="T66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T66" s="6" t="e">
         <f aca="false">V66+35</f>
-        <v>311</v>
-      </c>
-      <c r="U66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U66" s="6" t="e">
         <f aca="false">V65+35</f>
-        <v>278</v>
-      </c>
-      <c r="V66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V66" s="6" t="e">
         <f aca="false">W66+35</f>
-        <v>276</v>
-      </c>
-      <c r="W66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W66" s="6" t="e">
         <f aca="false">Y66+35</f>
-        <v>241</v>
-      </c>
-      <c r="X66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X66" s="6" t="e">
         <f aca="false">Z66+35</f>
-        <v>207</v>
-      </c>
-      <c r="Y66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y66" s="6" t="e">
         <f aca="false">AA66+35</f>
-        <v>206</v>
-      </c>
-      <c r="Z66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z66" s="6" t="e">
         <f aca="false">AB66+35</f>
-        <v>172</v>
-      </c>
-      <c r="AA66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA66" s="6" t="e">
         <f aca="false">AC67+35</f>
-        <v>171</v>
-      </c>
-      <c r="AB66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB66" s="6" t="e">
         <f aca="false">AD66+35</f>
-        <v>137</v>
-      </c>
-      <c r="AC66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC66" s="6" t="e">
         <f aca="false">AE65+35</f>
-        <v>103</v>
-      </c>
-      <c r="AD66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD66" s="6" t="e">
         <f aca="false">AF65+35</f>
-        <v>102</v>
-      </c>
-      <c r="AE66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE66" s="6" t="e">
         <f aca="false">AG65+35</f>
-        <v>101</v>
-      </c>
-      <c r="AF66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF66" s="6" t="e">
         <f aca="false">AH65+35</f>
-        <v>100</v>
-      </c>
-      <c r="AG66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG66" s="6" t="e">
         <f aca="false">AI65+35</f>
-        <v>99</v>
-      </c>
-      <c r="AH66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH66" s="6" t="e">
         <f aca="false">AJ65+35</f>
-        <v>98</v>
-      </c>
-      <c r="AI66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI66" s="6" t="e">
         <f aca="false">AK65+35</f>
-        <v>97</v>
-      </c>
-      <c r="AJ66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ66" s="6" t="e">
         <f aca="false">AL65+35</f>
-        <v>96</v>
-      </c>
-      <c r="AK66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK66" s="6" t="e">
         <f aca="false">AM65+35</f>
-        <v>95</v>
-      </c>
-      <c r="AL66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL66" s="6" t="e">
         <f aca="false">AN65+35</f>
-        <v>94</v>
-      </c>
-      <c r="AM66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM66" s="6" t="e">
         <f aca="false">AO65+35</f>
-        <v>93</v>
-      </c>
-      <c r="AN66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN66" s="6" t="e">
         <f aca="false">AP65+35</f>
-        <v>92</v>
-      </c>
-      <c r="AO66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO66" s="6" t="e">
         <f aca="false">AQ65+35</f>
-        <v>91</v>
-      </c>
-      <c r="AP66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP66" s="6" t="e">
         <f aca="false">AR65+35</f>
-        <v>90</v>
-      </c>
-      <c r="AQ66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ66" s="6" t="e">
         <f aca="false">AS65+35</f>
-        <v>89</v>
-      </c>
-      <c r="AR66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR66" s="6" t="e">
         <f aca="false">AT65+35</f>
-        <v>88</v>
-      </c>
-      <c r="AS66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS66" s="6" t="e">
         <f aca="false">AU65+35</f>
-        <v>87</v>
-      </c>
-      <c r="AT66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT66" s="6" t="e">
         <f aca="false">AV65+35</f>
-        <v>86</v>
-      </c>
-      <c r="AU66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU66" s="6" t="e">
         <f aca="false">AW65+35</f>
-        <v>85</v>
-      </c>
-      <c r="AV66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV66" s="6" t="e">
         <f aca="false">AX65+35</f>
-        <v>84</v>
-      </c>
-      <c r="AW66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW66" s="6" t="e">
         <f aca="false">AY65+35</f>
-        <v>83</v>
-      </c>
-      <c r="AX66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX66" s="6" t="e">
         <f aca="false">AZ65+35</f>
-        <v>82</v>
-      </c>
-      <c r="AY66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY66" s="6" t="e">
         <f aca="false">BA65+35</f>
-        <v>81</v>
-      </c>
-      <c r="AZ66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ66" s="6" t="e">
         <f aca="false">BB65+35</f>
-        <v>80</v>
-      </c>
-      <c r="BA66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA66" s="6" t="e">
         <f aca="false">BC65+35</f>
-        <v>79</v>
-      </c>
-      <c r="BB66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB66" s="6" t="e">
         <f aca="false">BD65+35</f>
-        <v>78</v>
-      </c>
-      <c r="BC66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC66" s="6" t="e">
         <f aca="false">BE65+35</f>
-        <v>77</v>
-      </c>
-      <c r="BD66" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD66" s="6" t="n">
         <f aca="false">BF65+35</f>
         <v>76</v>
       </c>
-      <c r="BE66" s="4" t="n">
+      <c r="BE66" s="6" t="n">
         <f aca="false">BG65+35</f>
         <v>75</v>
       </c>
-      <c r="BF66" s="4" t="n">
+      <c r="BF66" s="6" t="n">
         <f aca="false">BH65+35</f>
         <v>74</v>
       </c>
-      <c r="BG66" s="4" t="n">
+      <c r="BG66" s="6" t="n">
         <f aca="false">BI65+35</f>
         <v>73</v>
       </c>
-      <c r="BH66" s="4" t="n">
+      <c r="BH66" s="6" t="n">
         <f aca="false">BJ65+35</f>
         <v>72</v>
       </c>
-      <c r="BI66" s="4" t="n">
+      <c r="BI66" s="6" t="n">
         <f aca="false">BK65+35</f>
         <v>71</v>
       </c>
-      <c r="BJ66" s="4" t="n">
+      <c r="BJ66" s="6" t="n">
         <f aca="false">BL65+35</f>
         <v>71</v>
       </c>
-      <c r="BK66" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL66" s="9" t="n">
+      <c r="BK66" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL66" s="6" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="4" t="n">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9" t="e">
         <f aca="false">F66+35</f>
-        <v>591</v>
-      </c>
-      <c r="F67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F67" s="9" t="e">
         <f aca="false">G67+35</f>
-        <v>591</v>
-      </c>
-      <c r="G67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G67" s="9" t="e">
         <f aca="false">I67+35</f>
-        <v>556</v>
-      </c>
-      <c r="H67" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H67" s="9" t="n">
         <f aca="false">J67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I67" s="4" t="n">
+        <v>385</v>
+      </c>
+      <c r="I67" s="9" t="e">
         <f aca="false">K67+35</f>
-        <v>521</v>
-      </c>
-      <c r="J67" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J67" s="9" t="n">
         <f aca="false">L67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K67" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="K67" s="9" t="e">
         <f aca="false">M67+35</f>
-        <v>486</v>
-      </c>
-      <c r="L67" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L67" s="9" t="n">
         <f aca="false">N67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M67" s="4" t="n">
+        <v>315</v>
+      </c>
+      <c r="M67" s="9" t="e">
         <f aca="false">O67+35</f>
-        <v>451</v>
-      </c>
-      <c r="N67" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N67" s="9" t="n">
         <f aca="false">P67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O67" s="4" t="n">
+        <v>280</v>
+      </c>
+      <c r="O67" s="9" t="e">
         <f aca="false">Q67+35</f>
-        <v>416</v>
-      </c>
-      <c r="P67" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P67" s="9" t="n">
         <f aca="false">R67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q67" s="4" t="n">
+        <v>245</v>
+      </c>
+      <c r="Q67" s="9" t="e">
         <f aca="false">S67+35</f>
-        <v>381</v>
-      </c>
-      <c r="R67" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R67" s="9" t="n">
         <f aca="false">T67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S67" s="4" t="n">
+        <v>210</v>
+      </c>
+      <c r="S67" s="9" t="e">
         <f aca="false">U67+35</f>
-        <v>346</v>
-      </c>
-      <c r="T67" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T67" s="9" t="n">
         <f aca="false">V67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U67" s="4" t="n">
+        <v>175</v>
+      </c>
+      <c r="U67" s="9" t="e">
         <f aca="false">V66+35</f>
-        <v>311</v>
-      </c>
-      <c r="V67" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V67" s="9" t="n">
         <f aca="false">W67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W67" s="4" t="e">
+        <v>140</v>
+      </c>
+      <c r="W67" s="9" t="n">
         <f aca="false">Y67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X67" s="4" t="n">
+        <v>105</v>
+      </c>
+      <c r="X67" s="9" t="e">
         <f aca="false">Z67+35</f>
-        <v>240</v>
-      </c>
-      <c r="Y67" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y67" s="9" t="n">
         <f aca="false">AA67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z67" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z67" s="9" t="e">
         <f aca="false">AB67+35</f>
-        <v>205</v>
-      </c>
-      <c r="AA67" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA67" s="9" t="n">
         <f aca="false">AC68+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB67" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB67" s="9" t="e">
         <f aca="false">AD67+35</f>
-        <v>170</v>
-      </c>
-      <c r="AC67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC67" s="9" t="e">
         <f aca="false">AE66+35</f>
-        <v>136</v>
-      </c>
-      <c r="AD67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD67" s="9" t="e">
         <f aca="false">AF66+35</f>
-        <v>135</v>
-      </c>
-      <c r="AE67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE67" s="9" t="e">
         <f aca="false">AG66+35</f>
-        <v>134</v>
-      </c>
-      <c r="AF67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF67" s="9" t="e">
         <f aca="false">AH66+35</f>
-        <v>133</v>
-      </c>
-      <c r="AG67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG67" s="9" t="e">
         <f aca="false">AI66+35</f>
-        <v>132</v>
-      </c>
-      <c r="AH67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH67" s="9" t="e">
         <f aca="false">AJ66+35</f>
-        <v>131</v>
-      </c>
-      <c r="AI67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI67" s="9" t="e">
         <f aca="false">AK66+35</f>
-        <v>130</v>
-      </c>
-      <c r="AJ67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ67" s="9" t="e">
         <f aca="false">AL66+35</f>
-        <v>129</v>
-      </c>
-      <c r="AK67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK67" s="9" t="e">
         <f aca="false">AM66+35</f>
-        <v>128</v>
-      </c>
-      <c r="AL67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL67" s="9" t="e">
         <f aca="false">AN66+35</f>
-        <v>127</v>
-      </c>
-      <c r="AM67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM67" s="9" t="e">
         <f aca="false">AO66+35</f>
-        <v>126</v>
-      </c>
-      <c r="AN67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN67" s="9" t="e">
         <f aca="false">AP66+35</f>
-        <v>125</v>
-      </c>
-      <c r="AO67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO67" s="9" t="e">
         <f aca="false">AQ66+35</f>
-        <v>124</v>
-      </c>
-      <c r="AP67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP67" s="9" t="e">
         <f aca="false">AR66+35</f>
-        <v>123</v>
-      </c>
-      <c r="AQ67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ67" s="9" t="e">
         <f aca="false">AS66+35</f>
-        <v>122</v>
-      </c>
-      <c r="AR67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR67" s="9" t="e">
         <f aca="false">AT66+35</f>
-        <v>121</v>
-      </c>
-      <c r="AS67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS67" s="9" t="e">
         <f aca="false">AU66+35</f>
-        <v>120</v>
-      </c>
-      <c r="AT67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT67" s="9" t="e">
         <f aca="false">AV66+35</f>
-        <v>119</v>
-      </c>
-      <c r="AU67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU67" s="9" t="e">
         <f aca="false">AW66+35</f>
-        <v>118</v>
-      </c>
-      <c r="AV67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV67" s="9" t="e">
         <f aca="false">AX66+35</f>
-        <v>117</v>
-      </c>
-      <c r="AW67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW67" s="9" t="e">
         <f aca="false">AY66+35</f>
-        <v>116</v>
-      </c>
-      <c r="AX67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX67" s="9" t="e">
         <f aca="false">AZ66+35</f>
-        <v>115</v>
-      </c>
-      <c r="AY67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY67" s="9" t="e">
         <f aca="false">BA66+35</f>
-        <v>114</v>
-      </c>
-      <c r="AZ67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ67" s="9" t="e">
         <f aca="false">BB66+35</f>
-        <v>113</v>
-      </c>
-      <c r="BA67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA67" s="9" t="e">
         <f aca="false">BC66+35</f>
-        <v>112</v>
-      </c>
-      <c r="BB67" s="4" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB67" s="9" t="n">
         <f aca="false">BD66+35</f>
         <v>111</v>
       </c>
-      <c r="BC67" s="4" t="n">
+      <c r="BC67" s="9" t="n">
         <f aca="false">BE66+35</f>
         <v>110</v>
       </c>
-      <c r="BD67" s="4" t="n">
+      <c r="BD67" s="9" t="n">
         <f aca="false">BF66+35</f>
         <v>109</v>
       </c>
-      <c r="BE67" s="4" t="n">
+      <c r="BE67" s="9" t="n">
         <f aca="false">BG66+35</f>
         <v>108</v>
       </c>
-      <c r="BF67" s="4" t="n">
+      <c r="BF67" s="9" t="n">
         <f aca="false">BH66+35</f>
         <v>107</v>
       </c>
-      <c r="BG67" s="4" t="n">
+      <c r="BG67" s="9" t="n">
         <f aca="false">BI66+35</f>
         <v>106</v>
       </c>
-      <c r="BH67" s="4" t="n">
+      <c r="BH67" s="9" t="n">
         <f aca="false">BJ66+35</f>
         <v>106</v>
       </c>
-      <c r="BI67" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ67" s="3" t="n">
+      <c r="BI67" s="9"/>
+      <c r="BJ67" s="9" t="n">
         <v>-1</v>
       </c>
     </row>
-    <row r="68" s="5" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1"/>
-      <c r="C68" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="U68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="V68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="W68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI68" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ68" s="3" t="s">
-        <v>0</v>
+    <row r="68" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+      <c r="AB68" s="9"/>
+      <c r="AC68" s="9"/>
+      <c r="AD68" s="9"/>
+      <c r="AE68" s="9"/>
+      <c r="AF68" s="9"/>
+      <c r="AG68" s="9"/>
+      <c r="AH68" s="9"/>
+      <c r="AI68" s="9"/>
+      <c r="AJ68" s="9"/>
+      <c r="AK68" s="9"/>
+      <c r="AL68" s="9"/>
+      <c r="AM68" s="9"/>
+      <c r="AN68" s="9"/>
+      <c r="AO68" s="9"/>
+      <c r="AP68" s="9"/>
+      <c r="AQ68" s="9"/>
+      <c r="AR68" s="9"/>
+      <c r="AS68" s="9"/>
+      <c r="AT68" s="9"/>
+      <c r="AU68" s="9"/>
+      <c r="AV68" s="9"/>
+      <c r="AW68" s="9"/>
+      <c r="AX68" s="9"/>
+      <c r="AY68" s="9"/>
+      <c r="AZ68" s="9"/>
+      <c r="BA68" s="9"/>
+      <c r="BB68" s="9"/>
+      <c r="BC68" s="9"/>
+      <c r="BD68" s="9"/>
+      <c r="BE68" s="9"/>
+      <c r="BF68" s="9"/>
+      <c r="BG68" s="9"/>
+      <c r="BH68" s="9"/>
+      <c r="BI68" s="9"/>
+      <c r="BJ68" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="69" s="5" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1"/>
-      <c r="D69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="U69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="V69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="W69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH69" s="4" t="s">
-        <v>0</v>
-      </c>
+    <row r="69" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="9"/>
+      <c r="AD69" s="9"/>
+      <c r="AE69" s="9"/>
+      <c r="AF69" s="9"/>
+      <c r="AG69" s="9"/>
+      <c r="AH69" s="9"/>
+      <c r="AI69" s="9"/>
+      <c r="AJ69" s="9"/>
+      <c r="AK69" s="9"/>
+      <c r="AL69" s="9"/>
+      <c r="AM69" s="9"/>
+      <c r="AN69" s="9"/>
+      <c r="AO69" s="9"/>
+      <c r="AP69" s="9"/>
+      <c r="AQ69" s="9"/>
+      <c r="AR69" s="9"/>
+      <c r="AS69" s="9"/>
+      <c r="AT69" s="9"/>
+      <c r="AU69" s="9"/>
+      <c r="AV69" s="9"/>
+      <c r="AW69" s="9"/>
+      <c r="AX69" s="9"/>
+      <c r="AY69" s="9"/>
+      <c r="AZ69" s="9"/>
+      <c r="BA69" s="9"/>
+      <c r="BB69" s="9"/>
+      <c r="BC69" s="9"/>
+      <c r="BD69" s="9"/>
+      <c r="BE69" s="9"/>
+      <c r="BF69" s="9"/>
+      <c r="BG69" s="9"/>
+      <c r="BH69" s="9"/>
+      <c r="BI69" s="9"/>
+      <c r="BJ69" s="9"/>
     </row>
-    <row r="70" s="8" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" s="7" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="71" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B71" s="3" t="n">
         <v>-1</v>
@@ -11301,10 +10786,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" s="8" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" s="7" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="74" s="11" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B74" s="10" t="n">
         <v>-1</v>
@@ -11502,43 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5"/>
-      <c r="V87" s="5"/>
-      <c r="W87" s="5"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-      <c r="AA87" s="5"/>
-      <c r="AB87" s="5"/>
-      <c r="AC87" s="5"/>
-      <c r="AD87" s="5"/>
-      <c r="AE87" s="5"/>
-      <c r="AF87" s="5"/>
-      <c r="AG87" s="5"/>
-      <c r="AH87" s="5"/>
-      <c r="AI87" s="5"/>
-      <c r="AJ87" s="5"/>
-      <c r="AK87" s="5"/>
-      <c r="AL87" s="5"/>
-      <c r="AM87" s="5"/>
-      <c r="AN87" s="5"/>
-      <c r="AO87" s="5"/>
-      <c r="AP87" s="5"/>
-      <c r="AQ87" s="5"/>
-      <c r="AR87" s="5"/>
-      <c r="AS87" s="5"/>
-      <c r="AT87" s="5"/>
-      <c r="AU87" s="5"/>
-      <c r="AV87" s="5"/>
-      <c r="AW87" s="5"/>
-      <c r="AX87" s="5"/>
-      <c r="AY87" s="5"/>
-      <c r="AZ87" s="5"/>
-    </row>
+    <row r="87" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Lab2/dotNotationDADDAtree.xlsx
+++ b/Lab2/dotNotationDADDAtree.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="6">
   <si>
     <t xml:space="preserve">A1</t>
   </si>
@@ -34,10 +34,10 @@
     <t xml:space="preserve">A4</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
+    <t xml:space="preserve">A5</t>
   </si>
   <si>
-    <t xml:space="preserve">A5</t>
+    <t xml:space="preserve">A6</t>
   </si>
 </sst>
 </file>
@@ -135,8 +135,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3FAF46"/>
-        <bgColor rgb="FF50938A"/>
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FFD4EA6B"/>
       </patternFill>
     </fill>
   </fills>
@@ -215,11 +215,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -275,8 +275,8 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF3FAF46"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF972F"/>
       <rgbColor rgb="FFFF5429"/>
@@ -302,11 +302,11 @@
   </sheetPr>
   <dimension ref="A1:BO87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE49" colorId="64" zoomScale="44" zoomScaleNormal="44" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BP71" activeCellId="0" sqref="BP71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="44" zoomScaleNormal="44" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J79" activeCellId="0" sqref="J79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="46.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
   </cols>
@@ -5502,7 +5502,6 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="V39" s="0"/>
       <c r="W39" s="1" t="s">
         <v>1</v>
       </c>
@@ -8875,7 +8874,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AA59" s="4" t="n">
-        <f aca="false">AC63+35</f>
+        <f aca="false">AC62+35</f>
         <v>35</v>
       </c>
       <c r="AB59" s="4" t="e">
@@ -9305,431 +9304,675 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" s="7" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" s="7" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH63" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI63" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ63" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK63" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL63" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM63" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN63" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO63" s="9"/>
+    </row>
     <row r="64" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="9" t="n">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9" t="e">
+        <f aca="false">C64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C64" s="3" t="e">
+        <f aca="false">E64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D64" s="3" t="e">
+        <f aca="false">F64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E64" s="4" t="e">
+        <f aca="false">G64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF64" s="4" t="n">
+        <f aca="false">BH63+35</f>
+        <v>41</v>
+      </c>
+      <c r="BG64" s="4" t="n">
+        <f aca="false">BI63+35</f>
+        <v>40</v>
+      </c>
+      <c r="BH64" s="4" t="n">
+        <f aca="false">BJ63+35</f>
+        <v>39</v>
+      </c>
+      <c r="BI64" s="3" t="n">
+        <f aca="false">BK63+35</f>
+        <v>38</v>
+      </c>
+      <c r="BJ64" s="3" t="n">
+        <f aca="false">BL63+35</f>
+        <v>37</v>
+      </c>
+      <c r="BK64" s="9" t="n">
+        <f aca="false">BM63+35</f>
+        <v>36</v>
+      </c>
+      <c r="BL64" s="9" t="n">
+        <f aca="false">BM63+35</f>
+        <v>36</v>
+      </c>
+      <c r="BM64" s="9"/>
+      <c r="BN64" s="9" t="n">
         <v>-1</v>
-      </c>
-      <c r="C64" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="O64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="P64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="R64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="W64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="X64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH64" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI64" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ64" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="BK64" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL64" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BM64" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN64" s="9" t="n">
-        <v>0</v>
       </c>
       <c r="BO64" s="9"/>
     </row>
-    <row r="65" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9" t="e">
-        <f aca="false">C65+35</f>
-        <v>#VALUE!</v>
+    <row r="65" s="9" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="C65" s="9" t="e">
+        <f aca="false">D64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D65" s="9" t="e">
         <f aca="false">E65+35</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D65" s="9" t="e">
-        <f aca="false">F65+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E65" s="9" t="e">
+      <c r="E65" s="4" t="e">
         <f aca="false">G65+35</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="O65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="P65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="R65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="W65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="X65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF65" s="9" t="n">
+      <c r="F65" s="4" t="e">
+        <f aca="false">H65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G65" s="4" t="e">
+        <f aca="false">I65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H65" s="4" t="e">
+        <f aca="false">J65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I65" s="4" t="e">
+        <f aca="false">K65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J65" s="4" t="e">
+        <f aca="false">L65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K65" s="4" t="e">
+        <f aca="false">M65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L65" s="4" t="e">
+        <f aca="false">N65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M65" s="4" t="e">
+        <f aca="false">O65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N65" s="4" t="e">
+        <f aca="false">P65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O65" s="4" t="e">
+        <f aca="false">Q65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P65" s="4" t="e">
+        <f aca="false">R65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q65" s="4" t="e">
+        <f aca="false">S65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R65" s="4" t="e">
+        <f aca="false">T65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S65" s="4" t="e">
+        <f aca="false">U65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T65" s="4" t="e">
+        <f aca="false">V65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U65" s="4" t="e">
+        <f aca="false">V64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V65" s="4" t="e">
+        <f aca="false">W65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W65" s="4" t="e">
+        <f aca="false">Y65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X65" s="4" t="e">
+        <f aca="false">Z65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y65" s="4" t="e">
+        <f aca="false">AA65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z65" s="4" t="e">
+        <f aca="false">AB65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA65" s="4" t="e">
+        <f aca="false">AC66+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB65" s="4" t="e">
+        <f aca="false">AD65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC65" s="4" t="e">
+        <f aca="false">AE64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD65" s="4" t="e">
+        <f aca="false">AF64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE65" s="4" t="e">
+        <f aca="false">AG64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF65" s="4" t="e">
+        <f aca="false">AH64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG65" s="4" t="e">
+        <f aca="false">AI64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH65" s="4" t="e">
+        <f aca="false">AJ64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI65" s="4" t="e">
+        <f aca="false">AK64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ65" s="4" t="e">
+        <f aca="false">AL64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK65" s="4" t="e">
+        <f aca="false">AM64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL65" s="4" t="e">
+        <f aca="false">AN64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM65" s="4" t="e">
+        <f aca="false">AO64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN65" s="4" t="e">
+        <f aca="false">AP64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO65" s="4" t="e">
+        <f aca="false">AQ64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP65" s="4" t="e">
+        <f aca="false">AR64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ65" s="4" t="e">
+        <f aca="false">AS64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR65" s="4" t="e">
+        <f aca="false">AT64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS65" s="4" t="e">
+        <f aca="false">AU64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT65" s="4" t="e">
+        <f aca="false">AV64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU65" s="4" t="e">
+        <f aca="false">AW64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV65" s="4" t="e">
+        <f aca="false">AX64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW65" s="4" t="e">
+        <f aca="false">AY64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX65" s="4" t="e">
+        <f aca="false">AZ64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY65" s="4" t="e">
+        <f aca="false">BA64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ65" s="4" t="e">
+        <f aca="false">BB64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA65" s="4" t="e">
+        <f aca="false">BC64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB65" s="4" t="e">
+        <f aca="false">BD64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC65" s="4" t="e">
+        <f aca="false">BE64+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD65" s="4" t="n">
+        <f aca="false">BF64+35</f>
+        <v>76</v>
+      </c>
+      <c r="BE65" s="4" t="n">
+        <f aca="false">BG64+35</f>
+        <v>75</v>
+      </c>
+      <c r="BF65" s="4" t="n">
         <f aca="false">BH64+35</f>
-        <v>41</v>
-      </c>
-      <c r="BG65" s="9" t="n">
+        <v>74</v>
+      </c>
+      <c r="BG65" s="4" t="n">
         <f aca="false">BI64+35</f>
-        <v>40</v>
-      </c>
-      <c r="BH65" s="9" t="n">
+        <v>73</v>
+      </c>
+      <c r="BH65" s="4" t="n">
         <f aca="false">BJ64+35</f>
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="BI65" s="9" t="n">
         <f aca="false">BK64+35</f>
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="BJ65" s="9" t="n">
         <f aca="false">BL64+35</f>
-        <v>37</v>
-      </c>
-      <c r="BK65" s="3" t="n">
-        <f aca="false">BM64+35</f>
-        <v>36</v>
-      </c>
-      <c r="BL65" s="3" t="n">
-        <f aca="false">BM64+35</f>
-        <v>36</v>
-      </c>
-      <c r="BM65" s="9"/>
-      <c r="BN65" s="9" t="n">
+        <v>71</v>
+      </c>
+      <c r="BL65" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="BO65" s="9"/>
     </row>
     <row r="66" s="6" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C66" s="6" t="e">
-        <f aca="false">D65+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D66" s="6" t="e">
-        <f aca="false">E66+35</f>
-        <v>#VALUE!</v>
+      <c r="C66" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="6" t="e">
+        <f aca="false">F65+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F66" s="6" t="e">
         <f aca="false">G66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F66" s="6" t="e">
-        <f aca="false">H66+35</f>
         <v>#VALUE!</v>
       </c>
       <c r="G66" s="6" t="e">
@@ -9920,46 +10163,38 @@
         <f aca="false">BC65+35</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BB66" s="6" t="e">
+      <c r="BB66" s="6" t="n">
         <f aca="false">BD65+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BC66" s="6" t="e">
+        <v>111</v>
+      </c>
+      <c r="BC66" s="6" t="n">
         <f aca="false">BE65+35</f>
-        <v>#VALUE!</v>
+        <v>110</v>
       </c>
       <c r="BD66" s="6" t="n">
         <f aca="false">BF65+35</f>
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="BE66" s="6" t="n">
         <f aca="false">BG65+35</f>
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="BF66" s="6" t="n">
         <f aca="false">BH65+35</f>
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="BG66" s="6" t="n">
         <f aca="false">BI65+35</f>
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="BH66" s="6" t="n">
         <f aca="false">BJ65+35</f>
-        <v>72</v>
-      </c>
-      <c r="BI66" s="6" t="n">
-        <f aca="false">BK65+35</f>
-        <v>71</v>
+        <v>106</v>
+      </c>
+      <c r="BI66" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="BJ66" s="6" t="n">
-        <f aca="false">BL65+35</f>
-        <v>71</v>
-      </c>
-      <c r="BK66" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BL66" s="6" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -9968,1025 +10203,1629 @@
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="9" t="e">
-        <f aca="false">F66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F67" s="9" t="e">
-        <f aca="false">G67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G67" s="9" t="e">
-        <f aca="false">I67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H67" s="9" t="n">
-        <f aca="false">J67+35</f>
+      <c r="E67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="T67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="W67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="X67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI67" s="9"/>
+      <c r="BJ67" s="9"/>
+    </row>
+    <row r="68" s="7" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ69" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK69" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL69" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM69" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN69" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9"/>
+      <c r="B70" s="4" t="e">
+        <f aca="false">C70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C70" s="4" t="e">
+        <f aca="false">E70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D70" s="4" t="e">
+        <f aca="false">F70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E70" s="4" t="e">
+        <f aca="false">G70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF70" s="4" t="e">
+        <f aca="false">BH69+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG70" s="4" t="e">
+        <f aca="false">BI69+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BH70" s="4" t="n">
+        <f aca="false">BJ69+35</f>
+        <v>39</v>
+      </c>
+      <c r="BI70" s="4" t="n">
+        <f aca="false">BK69+35</f>
+        <v>38</v>
+      </c>
+      <c r="BJ70" s="3" t="n">
+        <f aca="false">BL69+35</f>
+        <v>37</v>
+      </c>
+      <c r="BK70" s="9" t="n">
+        <f aca="false">BM69+35</f>
+        <v>36</v>
+      </c>
+      <c r="BL70" s="9" t="n">
+        <f aca="false">BM69+35</f>
+        <v>36</v>
+      </c>
+      <c r="BM70" s="9"/>
+      <c r="BN70" s="9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" s="6" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" s="4" t="e">
+        <f aca="false">D70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D71" s="4" t="e">
+        <f aca="false">E71+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E71" s="4" t="e">
+        <f aca="false">G71+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F71" s="4" t="n">
+        <f aca="false">H71+35</f>
+        <v>420</v>
+      </c>
+      <c r="G71" s="4" t="e">
+        <f aca="false">I71+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H71" s="4" t="n">
+        <f aca="false">J71+35</f>
         <v>385</v>
       </c>
-      <c r="I67" s="9" t="e">
-        <f aca="false">K67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J67" s="9" t="n">
-        <f aca="false">L67+35</f>
+      <c r="I71" s="4" t="e">
+        <f aca="false">K71+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J71" s="4" t="n">
+        <f aca="false">L71+35</f>
         <v>350</v>
       </c>
-      <c r="K67" s="9" t="e">
-        <f aca="false">M67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L67" s="9" t="n">
-        <f aca="false">N67+35</f>
+      <c r="K71" s="4" t="e">
+        <f aca="false">M71+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L71" s="4" t="n">
+        <f aca="false">N71+35</f>
         <v>315</v>
       </c>
-      <c r="M67" s="9" t="e">
-        <f aca="false">O67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N67" s="9" t="n">
-        <f aca="false">P67+35</f>
+      <c r="M71" s="4" t="e">
+        <f aca="false">O71+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N71" s="4" t="n">
+        <f aca="false">P71+35</f>
         <v>280</v>
       </c>
-      <c r="O67" s="9" t="e">
-        <f aca="false">Q67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P67" s="9" t="n">
-        <f aca="false">R67+35</f>
+      <c r="O71" s="4" t="e">
+        <f aca="false">Q71+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P71" s="4" t="n">
+        <f aca="false">R71+35</f>
         <v>245</v>
       </c>
-      <c r="Q67" s="9" t="e">
-        <f aca="false">S67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R67" s="9" t="n">
-        <f aca="false">T67+35</f>
+      <c r="Q71" s="4" t="e">
+        <f aca="false">S71+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R71" s="4" t="n">
+        <f aca="false">T71+35</f>
         <v>210</v>
       </c>
-      <c r="S67" s="9" t="e">
-        <f aca="false">U67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T67" s="9" t="n">
-        <f aca="false">V67+35</f>
+      <c r="S71" s="4" t="e">
+        <f aca="false">U71+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T71" s="4" t="n">
+        <f aca="false">V71+35</f>
         <v>175</v>
       </c>
-      <c r="U67" s="9" t="e">
-        <f aca="false">V66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V67" s="9" t="n">
-        <f aca="false">W67+35</f>
+      <c r="U71" s="4" t="e">
+        <f aca="false">V70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V71" s="4" t="n">
+        <f aca="false">W71+35</f>
         <v>140</v>
       </c>
-      <c r="W67" s="9" t="n">
-        <f aca="false">Y67+35</f>
+      <c r="W71" s="4" t="n">
+        <f aca="false">Y71+35</f>
         <v>105</v>
       </c>
-      <c r="X67" s="9" t="e">
-        <f aca="false">Z67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y67" s="9" t="n">
-        <f aca="false">AA67+35</f>
+      <c r="X71" s="4" t="e">
+        <f aca="false">Z71+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y71" s="4" t="n">
+        <f aca="false">AA71+35</f>
         <v>70</v>
       </c>
-      <c r="Z67" s="9" t="e">
-        <f aca="false">AB67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA67" s="9" t="n">
-        <f aca="false">AC68+35</f>
+      <c r="Z71" s="4" t="e">
+        <f aca="false">AB71+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA71" s="4" t="n">
+        <f aca="false">AC73+35</f>
         <v>35</v>
       </c>
-      <c r="AB67" s="9" t="e">
-        <f aca="false">AD67+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC67" s="9" t="e">
-        <f aca="false">AE66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD67" s="9" t="e">
-        <f aca="false">AF66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE67" s="9" t="e">
-        <f aca="false">AG66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF67" s="9" t="e">
-        <f aca="false">AH66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG67" s="9" t="e">
-        <f aca="false">AI66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH67" s="9" t="e">
-        <f aca="false">AJ66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI67" s="9" t="e">
-        <f aca="false">AK66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ67" s="9" t="e">
-        <f aca="false">AL66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK67" s="9" t="e">
-        <f aca="false">AM66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL67" s="9" t="e">
-        <f aca="false">AN66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AM67" s="9" t="e">
-        <f aca="false">AO66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN67" s="9" t="e">
-        <f aca="false">AP66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AO67" s="9" t="e">
-        <f aca="false">AQ66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP67" s="9" t="e">
-        <f aca="false">AR66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ67" s="9" t="e">
-        <f aca="false">AS66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR67" s="9" t="e">
-        <f aca="false">AT66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AS67" s="9" t="e">
-        <f aca="false">AU66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT67" s="9" t="e">
-        <f aca="false">AV66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU67" s="9" t="e">
-        <f aca="false">AW66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV67" s="9" t="e">
-        <f aca="false">AX66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AW67" s="9" t="e">
-        <f aca="false">AY66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AX67" s="9" t="e">
-        <f aca="false">AZ66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AY67" s="9" t="e">
-        <f aca="false">BA66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AZ67" s="9" t="e">
-        <f aca="false">BB66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA67" s="9" t="e">
-        <f aca="false">BC66+35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB67" s="9" t="n">
-        <f aca="false">BD66+35</f>
-        <v>111</v>
-      </c>
-      <c r="BC67" s="9" t="n">
-        <f aca="false">BE66+35</f>
-        <v>110</v>
-      </c>
-      <c r="BD67" s="9" t="n">
-        <f aca="false">BF66+35</f>
-        <v>109</v>
-      </c>
-      <c r="BE67" s="9" t="n">
-        <f aca="false">BG66+35</f>
-        <v>108</v>
-      </c>
-      <c r="BF67" s="9" t="n">
-        <f aca="false">BH66+35</f>
-        <v>107</v>
-      </c>
-      <c r="BG67" s="9" t="n">
-        <f aca="false">BI66+35</f>
-        <v>106</v>
-      </c>
-      <c r="BH67" s="9" t="n">
-        <f aca="false">BJ66+35</f>
-        <v>106</v>
-      </c>
-      <c r="BI67" s="9"/>
-      <c r="BJ67" s="9" t="n">
+      <c r="AB71" s="4" t="e">
+        <f aca="false">AD71+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC71" s="4" t="e">
+        <f aca="false">AE70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD71" s="4" t="e">
+        <f aca="false">AF70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE71" s="4" t="e">
+        <f aca="false">AG70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF71" s="4" t="e">
+        <f aca="false">AH70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG71" s="4" t="e">
+        <f aca="false">AI70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH71" s="4" t="e">
+        <f aca="false">AJ70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI71" s="4" t="e">
+        <f aca="false">AK70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ71" s="4" t="e">
+        <f aca="false">AL70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK71" s="4" t="e">
+        <f aca="false">AM70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL71" s="4" t="e">
+        <f aca="false">AN70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM71" s="4" t="e">
+        <f aca="false">AO70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN71" s="4" t="e">
+        <f aca="false">AP70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO71" s="4" t="e">
+        <f aca="false">AQ70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP71" s="4" t="e">
+        <f aca="false">AR70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ71" s="4" t="e">
+        <f aca="false">AS70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR71" s="4" t="e">
+        <f aca="false">AT70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS71" s="4" t="e">
+        <f aca="false">AU70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT71" s="4" t="e">
+        <f aca="false">AV70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU71" s="4" t="e">
+        <f aca="false">AW70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV71" s="4" t="e">
+        <f aca="false">AX70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW71" s="4" t="e">
+        <f aca="false">AY70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX71" s="4" t="e">
+        <f aca="false">AZ70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY71" s="4" t="e">
+        <f aca="false">BA70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ71" s="4" t="e">
+        <f aca="false">BB70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA71" s="4" t="e">
+        <f aca="false">BC70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB71" s="4" t="e">
+        <f aca="false">BD70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC71" s="4" t="e">
+        <f aca="false">BE70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD71" s="4" t="e">
+        <f aca="false">BF70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE71" s="4" t="e">
+        <f aca="false">BG70+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF71" s="4" t="n">
+        <f aca="false">BH70+35</f>
+        <v>74</v>
+      </c>
+      <c r="BG71" s="4" t="n">
+        <f aca="false">BI70+35</f>
+        <v>73</v>
+      </c>
+      <c r="BH71" s="4" t="n">
+        <f aca="false">BJ70+35</f>
+        <v>72</v>
+      </c>
+      <c r="BI71" s="4" t="n">
+        <f aca="false">BK70+35</f>
+        <v>71</v>
+      </c>
+      <c r="BJ71" s="6" t="n">
+        <f aca="false">BL70+35</f>
+        <v>71</v>
+      </c>
+      <c r="BL71" s="6" t="n">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
-      <c r="AA68" s="9"/>
-      <c r="AB68" s="9"/>
-      <c r="AC68" s="9"/>
-      <c r="AD68" s="9"/>
-      <c r="AE68" s="9"/>
-      <c r="AF68" s="9"/>
-      <c r="AG68" s="9"/>
-      <c r="AH68" s="9"/>
-      <c r="AI68" s="9"/>
-      <c r="AJ68" s="9"/>
-      <c r="AK68" s="9"/>
-      <c r="AL68" s="9"/>
-      <c r="AM68" s="9"/>
-      <c r="AN68" s="9"/>
-      <c r="AO68" s="9"/>
-      <c r="AP68" s="9"/>
-      <c r="AQ68" s="9"/>
-      <c r="AR68" s="9"/>
-      <c r="AS68" s="9"/>
-      <c r="AT68" s="9"/>
-      <c r="AU68" s="9"/>
-      <c r="AV68" s="9"/>
-      <c r="AW68" s="9"/>
-      <c r="AX68" s="9"/>
-      <c r="AY68" s="9"/>
-      <c r="AZ68" s="9"/>
-      <c r="BA68" s="9"/>
-      <c r="BB68" s="9"/>
-      <c r="BC68" s="9"/>
-      <c r="BD68" s="9"/>
-      <c r="BE68" s="9"/>
-      <c r="BF68" s="9"/>
-      <c r="BG68" s="9"/>
-      <c r="BH68" s="9"/>
-      <c r="BI68" s="9"/>
-      <c r="BJ68" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-      <c r="AA69" s="9"/>
-      <c r="AB69" s="9"/>
-      <c r="AC69" s="9"/>
-      <c r="AD69" s="9"/>
-      <c r="AE69" s="9"/>
-      <c r="AF69" s="9"/>
-      <c r="AG69" s="9"/>
-      <c r="AH69" s="9"/>
-      <c r="AI69" s="9"/>
-      <c r="AJ69" s="9"/>
-      <c r="AK69" s="9"/>
-      <c r="AL69" s="9"/>
-      <c r="AM69" s="9"/>
-      <c r="AN69" s="9"/>
-      <c r="AO69" s="9"/>
-      <c r="AP69" s="9"/>
-      <c r="AQ69" s="9"/>
-      <c r="AR69" s="9"/>
-      <c r="AS69" s="9"/>
-      <c r="AT69" s="9"/>
-      <c r="AU69" s="9"/>
-      <c r="AV69" s="9"/>
-      <c r="AW69" s="9"/>
-      <c r="AX69" s="9"/>
-      <c r="AY69" s="9"/>
-      <c r="AZ69" s="9"/>
-      <c r="BA69" s="9"/>
-      <c r="BB69" s="9"/>
-      <c r="BC69" s="9"/>
-      <c r="BD69" s="9"/>
-      <c r="BE69" s="9"/>
-      <c r="BF69" s="9"/>
-      <c r="BG69" s="9"/>
-      <c r="BH69" s="9"/>
-      <c r="BI69" s="9"/>
-      <c r="BJ69" s="9"/>
-    </row>
-    <row r="70" s="7" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L71" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P71" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R71" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T71" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V71" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W71" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y71" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA71" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC71" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD71" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE71" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF71" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG71" s="3" t="n">
-        <v>33</v>
-      </c>
-      <c r="AH71" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI71" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="AJ71" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK71" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL71" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM71" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN71" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO71" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP71" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ71" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR71" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AS71" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AT71" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU71" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AV71" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AW71" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX71" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY71" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ71" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA71" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="BB71" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="BC71" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD71" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="BE71" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF71" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG71" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH71" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI71" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ71" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="BK71" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL71" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BM71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN71" s="3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3" t="n">
-        <f aca="false">C72+35</f>
-        <v>384</v>
-      </c>
-      <c r="C72" s="3" t="n">
-        <f aca="false">E72+35</f>
-        <v>349</v>
-      </c>
-      <c r="D72" s="3" t="n">
-        <f aca="false">F72+35</f>
-        <v>455</v>
-      </c>
-      <c r="E72" s="3" t="n">
-        <f aca="false">G72+35</f>
-        <v>314</v>
-      </c>
-      <c r="F72" s="3" t="n">
-        <f aca="false">H72+35</f>
-        <v>420</v>
-      </c>
-      <c r="G72" s="3" t="n">
-        <f aca="false">I72+35</f>
-        <v>279</v>
-      </c>
-      <c r="H72" s="3" t="n">
-        <f aca="false">J72+35</f>
-        <v>385</v>
-      </c>
-      <c r="I72" s="3" t="n">
-        <f aca="false">K72+35</f>
-        <v>244</v>
-      </c>
-      <c r="J72" s="3" t="n">
-        <f aca="false">L72+35</f>
-        <v>350</v>
-      </c>
-      <c r="K72" s="3" t="n">
-        <f aca="false">M72+35</f>
-        <v>209</v>
-      </c>
-      <c r="L72" s="3" t="n">
-        <f aca="false">N72+35</f>
-        <v>315</v>
-      </c>
-      <c r="M72" s="3" t="n">
-        <f aca="false">O72+35</f>
-        <v>174</v>
-      </c>
-      <c r="N72" s="3" t="n">
-        <f aca="false">P72+35</f>
-        <v>280</v>
-      </c>
-      <c r="O72" s="3" t="n">
-        <f aca="false">Q72+35</f>
-        <v>139</v>
-      </c>
-      <c r="P72" s="3" t="n">
-        <f aca="false">R72+35</f>
-        <v>245</v>
-      </c>
-      <c r="Q72" s="3" t="n">
-        <f aca="false">S72+35</f>
-        <v>104</v>
-      </c>
-      <c r="R72" s="3" t="n">
-        <f aca="false">T72+35</f>
-        <v>210</v>
-      </c>
-      <c r="S72" s="3" t="n">
-        <f aca="false">U72+35</f>
-        <v>69</v>
-      </c>
-      <c r="T72" s="3" t="n">
-        <f aca="false">V72+35</f>
-        <v>175</v>
-      </c>
-      <c r="U72" s="3" t="n">
-        <f aca="false">V71+35</f>
-        <v>34</v>
-      </c>
-      <c r="V72" s="3" t="n">
-        <f aca="false">W72+35</f>
-        <v>140</v>
-      </c>
-      <c r="W72" s="3" t="n">
-        <f aca="false">Y72+35</f>
-        <v>105</v>
-      </c>
-      <c r="X72" s="3" t="n">
-        <f aca="false">Z72+35</f>
-        <v>174</v>
-      </c>
-      <c r="Y72" s="3" t="n">
-        <f aca="false">AA72+35</f>
-        <v>70</v>
-      </c>
-      <c r="Z72" s="3" t="n">
-        <f aca="false">AB72+35</f>
-        <v>139</v>
-      </c>
-      <c r="AA72" s="3" t="n">
-        <f aca="false">AC73+35</f>
-        <v>35</v>
-      </c>
-      <c r="AB72" s="3" t="n">
-        <f aca="false">AD72+35</f>
-        <v>104</v>
-      </c>
-      <c r="AC72" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD72" s="3" t="n">
-        <f aca="false">AF71+35</f>
-        <v>69</v>
-      </c>
-      <c r="AE72" s="3" t="n">
-        <f aca="false">AG71+35</f>
-        <v>68</v>
-      </c>
-      <c r="AF72" s="3" t="n">
-        <f aca="false">AH71+35</f>
-        <v>67</v>
-      </c>
-      <c r="AG72" s="3" t="n">
-        <f aca="false">AI71+35</f>
-        <v>66</v>
-      </c>
-      <c r="AH72" s="3" t="n">
-        <f aca="false">AJ71+35</f>
-        <v>65</v>
-      </c>
-      <c r="AI72" s="3" t="n">
-        <f aca="false">AK71+35</f>
-        <v>64</v>
-      </c>
-      <c r="AJ72" s="3" t="n">
-        <f aca="false">AL71+35</f>
-        <v>63</v>
-      </c>
-      <c r="AK72" s="3" t="n">
-        <f aca="false">AM71+35</f>
-        <v>62</v>
-      </c>
-      <c r="AL72" s="3" t="n">
-        <f aca="false">AN71+35</f>
-        <v>61</v>
-      </c>
-      <c r="AM72" s="3" t="n">
-        <f aca="false">AO71+35</f>
-        <v>60</v>
-      </c>
-      <c r="AN72" s="3" t="n">
-        <f aca="false">AP71+35</f>
-        <v>59</v>
-      </c>
-      <c r="AO72" s="3" t="n">
-        <f aca="false">AQ71+35</f>
-        <v>58</v>
-      </c>
-      <c r="AP72" s="3" t="n">
-        <f aca="false">AR71+35</f>
-        <v>57</v>
-      </c>
-      <c r="AQ72" s="3" t="n">
-        <f aca="false">AS71+35</f>
-        <v>56</v>
-      </c>
-      <c r="AR72" s="3" t="n">
-        <f aca="false">AT71+35</f>
-        <v>55</v>
-      </c>
-      <c r="AS72" s="3" t="n">
-        <f aca="false">AU71+35</f>
-        <v>54</v>
-      </c>
-      <c r="AT72" s="3" t="n">
-        <f aca="false">AV71+35</f>
-        <v>53</v>
-      </c>
-      <c r="AU72" s="3" t="n">
-        <f aca="false">AW71+35</f>
-        <v>52</v>
-      </c>
-      <c r="AV72" s="3" t="n">
-        <f aca="false">AX71+35</f>
-        <v>51</v>
-      </c>
-      <c r="AW72" s="3" t="n">
-        <f aca="false">AY71+35</f>
-        <v>50</v>
-      </c>
-      <c r="AX72" s="3" t="n">
-        <f aca="false">AZ71+35</f>
-        <v>49</v>
-      </c>
-      <c r="AY72" s="3" t="n">
-        <f aca="false">BA71+35</f>
-        <v>48</v>
-      </c>
-      <c r="AZ72" s="3" t="n">
-        <f aca="false">BB71+35</f>
-        <v>47</v>
-      </c>
-      <c r="BA72" s="3" t="n">
-        <f aca="false">BC71+35</f>
-        <v>46</v>
-      </c>
-      <c r="BB72" s="3" t="n">
-        <f aca="false">BD71+35</f>
-        <v>45</v>
-      </c>
-      <c r="BC72" s="3" t="n">
-        <f aca="false">BE71+35</f>
-        <v>44</v>
-      </c>
-      <c r="BD72" s="3" t="n">
-        <f aca="false">BF71+35</f>
-        <v>43</v>
-      </c>
-      <c r="BE72" s="3" t="n">
-        <f aca="false">BG71+35</f>
-        <v>42</v>
-      </c>
-      <c r="BF72" s="3" t="n">
-        <f aca="false">BH71+35</f>
-        <v>41</v>
-      </c>
-      <c r="BG72" s="3" t="n">
-        <f aca="false">BI71+35</f>
-        <v>40</v>
-      </c>
-      <c r="BH72" s="3" t="n">
-        <f aca="false">BJ71+35</f>
-        <v>39</v>
-      </c>
-      <c r="BI72" s="3" t="n">
-        <f aca="false">BK71+35</f>
-        <v>38</v>
-      </c>
-      <c r="BJ72" s="3" t="n">
-        <f aca="false">BL71+35</f>
-        <v>37</v>
-      </c>
-      <c r="BK72" s="3" t="n">
-        <f aca="false">BM71+35</f>
-        <v>36</v>
-      </c>
-      <c r="BL72" s="3" t="n">
-        <f aca="false">BM71+35</f>
-        <v>36</v>
-      </c>
-      <c r="BM72" s="3"/>
-      <c r="BN72" s="3" t="n">
-        <v>-1</v>
+      <c r="B72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI72" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="73" s="7" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" s="11" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="10" t="n">
+    <row r="74" s="10" customFormat="true" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ74" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK74" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL74" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM74" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN74" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9"/>
+      <c r="B75" s="3" t="e">
+        <f aca="false">C75+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C75" s="3" t="e">
+        <f aca="false">E75+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D75" s="3" t="e">
+        <f aca="false">F75+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E75" s="3" t="e">
+        <f aca="false">G75+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF75" s="3" t="e">
+        <f aca="false">BH74+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG75" s="3" t="e">
+        <f aca="false">BI74+35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BH75" s="3" t="n">
+        <f aca="false">BJ74+35</f>
+        <v>39</v>
+      </c>
+      <c r="BI75" s="3" t="n">
+        <f aca="false">BK74+35</f>
+        <v>38</v>
+      </c>
+      <c r="BJ75" s="3" t="n">
+        <f aca="false">BL74+35</f>
+        <v>37</v>
+      </c>
+      <c r="BK75" s="3" t="n">
+        <f aca="false">BM74+35</f>
+        <v>36</v>
+      </c>
+      <c r="BL75" s="3" t="n">
+        <f aca="false">BM74+35</f>
+        <v>36</v>
+      </c>
+      <c r="BM75" s="9"/>
+      <c r="BN75" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="C74" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E74" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F74" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G74" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I74" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K74" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L74" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M74" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O74" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P74" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q74" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R74" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S74" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="T74" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U74" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V74" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W74" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X74" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y74" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z74" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA74" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB74" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC74" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD74" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE74" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF74" s="10" t="n">
+    </row>
+    <row r="76" s="7" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D77" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E77" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F77" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G77" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H77" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I77" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J77" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K77" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="L77" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="M77" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="N77" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="O77" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="P77" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q77" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="R77" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="S77" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="T77" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="U77" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="V77" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="W77" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="X77" s="11" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y77" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z77" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA77" s="11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB77" s="11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC77" s="11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD77" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE77" s="11" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF77" s="11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG77" s="11" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH77" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="AG74" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="AH74" s="10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI74" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="AJ74" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK74" s="10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL74" s="10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM74" s="10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN74" s="10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO74" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP74" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ74" s="10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR74" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AS74" s="10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AT74" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU74" s="10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AV74" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AW74" s="10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX74" s="10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY74" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ74" s="10" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA74" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="BB74" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="BC74" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD74" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="BE74" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF74" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG74" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH74" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI74" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ74" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="BK74" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL74" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="BM74" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN74" s="10" t="n">
-        <v>0</v>
+      <c r="AI77" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ77" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK77" s="11" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL77" s="11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM77" s="11" t="n">
+        <v>39</v>
+      </c>
+      <c r="AN77" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO77" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP77" s="11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AQ77" s="11" t="n">
+        <v>43</v>
+      </c>
+      <c r="AR77" s="11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AS77" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AT77" s="11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AU77" s="11" t="n">
+        <v>47</v>
+      </c>
+      <c r="AV77" s="11" t="n">
+        <v>48</v>
+      </c>
+      <c r="AW77" s="11" t="n">
+        <v>49</v>
+      </c>
+      <c r="AX77" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AY77" s="11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ77" s="11" t="n">
+        <v>52</v>
+      </c>
+      <c r="BA77" s="11" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB77" s="11" t="n">
+        <v>54</v>
+      </c>
+      <c r="BC77" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="BD77" s="11" t="n">
+        <v>56</v>
+      </c>
+      <c r="BE77" s="11" t="n">
+        <v>57</v>
+      </c>
+      <c r="BF77" s="11" t="n">
+        <v>58</v>
+      </c>
+      <c r="BG77" s="11" t="n">
+        <v>59</v>
+      </c>
+      <c r="BH77" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="BI77" s="11" t="n">
+        <v>61</v>
+      </c>
+      <c r="BJ77" s="11" t="n">
+        <v>62</v>
+      </c>
+      <c r="BK77" s="11" t="n">
+        <v>63</v>
+      </c>
+      <c r="BL77" s="11" t="n">
+        <v>64</v>
+      </c>
+      <c r="BM77" s="11" t="n">
+        <v>65</v>
+      </c>
+      <c r="BN77" s="11" t="n">
+        <v>66</v>
       </c>
     </row>
+    <row r="78" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="87" customFormat="false" ht="46.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
